--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail0 Features.xlsx
@@ -6448,7 +6448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,29 +6459,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6502,115 +6500,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6627,72 +6615,66 @@
         <v>3.824199523657229e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.57528428006675</v>
+        <v>2.788076595361555e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.23792889724657</v>
+        <v>4.793803617937904e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.788076595361555e-06</v>
+        <v>0.1048325706394544</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.793803617937904e-06</v>
+        <v>0.3762911776195549</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1048325706394544</v>
+        <v>0.1522306794271492</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3762911776195549</v>
+        <v>1.877965003899942</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1522306794271492</v>
+        <v>1.880241174891011</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.874479665221412</v>
+        <v>4.170549857814589</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.880241174891011</v>
+        <v>3.637005153295492e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.170549857814589</v>
+        <v>122533949.5810596</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.637005153295492e-15</v>
+        <v>9.762608694515559e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>122533949.5810596</v>
+        <v>54.6080640998684</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.762608694515559e-07</v>
+        <v>0.000240409630370206</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>54.6080640998684</v>
+        <v>10.42535068850619</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000240409630370206</v>
+        <v>1.507182863715852</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.42535068850619</v>
+        <v>0.02612962675466214</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.507182863715852</v>
+        <v>2.76066800956765</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02612962675466214</v>
+        <v>0.9581666481404049</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.76066800956765</v>
+        <v>1.538197537654564</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9581666481404049</v>
+        <v>42</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.538197537654564</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.6434551286577277</v>
       </c>
     </row>
@@ -6707,72 +6689,66 @@
         <v>2.736667540746557e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.954091621335132</v>
+        <v>2.011695589144679e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.49399493286493</v>
+        <v>4.827036623160076e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.011695589144679e-06</v>
+        <v>0.09907242183836656</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.827036623160076e-06</v>
+        <v>0.3906420958576339</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09907242183836656</v>
+        <v>0.1620393181049134</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3906420958576339</v>
+        <v>1.878285403839086</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1620393181049134</v>
+        <v>2.006141168160601</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.864487279280411</v>
+        <v>4.075305405888844</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.006141168160601</v>
+        <v>3.808993487362417e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.075305405888844</v>
+        <v>116886149.1610889</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.808993487362417e-15</v>
+        <v>1.023055148753847e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>116886149.1610889</v>
+        <v>52.03988545840647</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.023055148753847e-06</v>
+        <v>0.0001958131328522068</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>52.03988545840647</v>
+        <v>9.444378545896864</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001958131328522068</v>
+        <v>1.584254322481977</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.444378545896864</v>
+        <v>0.01746580422358595</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.584254322481977</v>
+        <v>2.968084860447946</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01746580422358595</v>
+        <v>0.9573292189912745</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.968084860447946</v>
+        <v>1.505320882572345</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9573292189912745</v>
+        <v>42</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.505320882572345</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.390248080930609</v>
       </c>
     </row>
@@ -6787,72 +6763,66 @@
         <v>2.02660762569403e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.794892876003435</v>
+        <v>1.44381370835713e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.271783277770442</v>
+        <v>4.849076559126688e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.44381370835713e-06</v>
+        <v>0.08639754724066663</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.849076559126688e-06</v>
+        <v>0.3956257450686</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08639754724066663</v>
+        <v>0.1636110814643229</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3956257450686</v>
+        <v>1.885327902458555</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1636110814643229</v>
+        <v>2.045245718424711</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.862871084237421</v>
+        <v>4.184587421230517</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.045245718424711</v>
+        <v>3.61264477954913e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.184587421230517</v>
+        <v>122321205.8749521</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.61264477954913e-15</v>
+        <v>9.786621422575477e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>122321205.8749521</v>
+        <v>54.05411589244532</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.786621422575477e-07</v>
+        <v>0.0001470760250425588</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>54.05411589244532</v>
+        <v>9.748775264266364</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001470760250425588</v>
+        <v>1.186945315456511</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.748775264266364</v>
+        <v>0.01397790233058209</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.186945315456511</v>
+        <v>2.994231892224136</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01397790233058209</v>
+        <v>0.9584293074194651</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.994231892224136</v>
+        <v>1.513514892852346</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9584293074194651</v>
+        <v>42</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.513514892852346</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.308065709869713</v>
       </c>
     </row>
@@ -6867,72 +6837,66 @@
         <v>1.618466372034857e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3774108875832884</v>
+        <v>1.020186316176128e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.611022740720582</v>
+        <v>4.862790092877552e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.020186316176128e-06</v>
+        <v>0.0636099614946245</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.862790092877552e-06</v>
+        <v>0.3714320546646491</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0636099614946245</v>
+        <v>0.1416708315081557</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3714320546646491</v>
+        <v>1.876526032242279</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1416708315081557</v>
+        <v>2.124679215845619</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.859884776446684</v>
+        <v>4.267208783536939</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.124679215845619</v>
+        <v>3.47410361167768e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.267208783536939</v>
+        <v>123862452.4839549</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.47410361167768e-15</v>
+        <v>9.608822350349149e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>123862452.4839549</v>
+        <v>53.29937498890823</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.608822350349149e-07</v>
+        <v>0.0001408703309066347</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>53.29937498890823</v>
+        <v>9.838118379032137</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001408703309066347</v>
+        <v>1.176376519695266</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.838118379032137</v>
+        <v>0.01363463834027871</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.176376519695266</v>
+        <v>2.839632557057306</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01363463834027871</v>
+        <v>0.9591043762485931</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.839632557057306</v>
+        <v>1.535298317872738</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9591043762485931</v>
+        <v>65</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.535298317872738</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2775197314296632</v>
       </c>
     </row>
@@ -6947,72 +6911,66 @@
         <v>1.438852754151304e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4689361938942769</v>
+        <v>6.953203602629251e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8043309116929387</v>
+        <v>4.870173128230376e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.953203602629251e-07</v>
+        <v>0.03305786185184146</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.870173128230376e-06</v>
+        <v>0.3049448723803599</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03305786185184146</v>
+        <v>0.09383410104511744</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3049448723803599</v>
+        <v>1.872616919833386</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.09383410104511744</v>
+        <v>2.025998515172907</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.854474929475519</v>
+        <v>4.26574517811343</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.025998515172907</v>
+        <v>3.476487996574369e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.26574517811343</v>
+        <v>123048457.5105802</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.476487996574369e-15</v>
+        <v>9.670660911747731e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>123048457.5105802</v>
+        <v>52.63723670407405</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.670660911747731e-07</v>
+        <v>0.0001374486479033801</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>52.63723670407405</v>
+        <v>9.057085830422883</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001374486479033801</v>
+        <v>1.222770425762298</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.057085830422883</v>
+        <v>0.01127502306044201</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.222770425762298</v>
+        <v>2.924165496017579</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01127502306044201</v>
+        <v>0.9588152996766577</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.924165496017579</v>
+        <v>1.517530997536876</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9588152996766577</v>
+        <v>61</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.517530997536876</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.259925250227357</v>
       </c>
     </row>
@@ -7027,72 +6985,66 @@
         <v>1.394217421321832e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.6398759354617779</v>
+        <v>4.555528623005305e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.037936966167804</v>
+        <v>4.872762319543359e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.555528623005305e-07</v>
+        <v>0.005019633497159193</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.872762319543359e-06</v>
+        <v>0.2241751705541817</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.005019633497159193</v>
+        <v>0.05014841266373547</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2241751705541817</v>
+        <v>1.87416575884582</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05014841266373547</v>
+        <v>1.989719793452561</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.85702493157767</v>
+        <v>4.210329331247118</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.989719793452561</v>
+        <v>3.568604477663189e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.210329331247118</v>
+        <v>120100710.8768584</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.568604477663189e-15</v>
+        <v>9.898893778107255e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>120100710.8768584</v>
+        <v>51.47419602223125</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.898893778107255e-07</v>
+        <v>0.0001420882703264131</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>51.47419602223125</v>
+        <v>7.871374306384774</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001420882703264131</v>
+        <v>1.394651370555384</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.871374306384774</v>
+        <v>0.008803580852886021</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.394651370555384</v>
+        <v>3.050422071764817</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008803580852886021</v>
+        <v>0.9582843281781535</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.050422071764817</v>
+        <v>1.543191774413907</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9582843281781535</v>
+        <v>28</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.543191774413907</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2413884757538763</v>
       </c>
     </row>
@@ -7107,72 +7059,66 @@
         <v>1.399734571723135e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6390386259770636</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.045424230271404</v>
+        <v>4.872007636419189e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.01418133854358337</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.872007636419189e-06</v>
+        <v>0.163228481171604</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01418133854358337</v>
+        <v>0.02678668639707215</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.163228481171604</v>
+        <v>1.874208050021084</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02678668639707215</v>
+        <v>1.972960510620099</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.855487344235383</v>
+        <v>4.09616317214412</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.972960510620099</v>
+        <v>3.770301267746939e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.09616317214412</v>
+        <v>113627803.0076822</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.770301267746939e-15</v>
+        <v>1.046880158287538e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>113627803.0076822</v>
+        <v>48.67940636516698</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.046880158287538e-06</v>
+        <v>0.0001636589871498975</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>48.67940636516698</v>
+        <v>8.379780037428025</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001636589871498975</v>
+        <v>1.54022836333834</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.379780037428025</v>
+        <v>0.0114922508443725</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.54022836333834</v>
+        <v>2.984143446708354</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0114922508443725</v>
+        <v>0.9598414963701863</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.984143446708354</v>
+        <v>1.571856500493287</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9598414963701863</v>
+        <v>24</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.571856500493287</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2280145034836592</v>
       </c>
     </row>
@@ -7187,72 +7133,66 @@
         <v>1.410749547106477e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6669436480723989</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.03574752564287</v>
+        <v>4.869120099279174e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.0257159162319271</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.869120099279174e-06</v>
+        <v>0.1259259091349828</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0257159162319271</v>
+        <v>0.01649328484488819</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1259259091349828</v>
+        <v>1.870765436865889</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01649328484488819</v>
+        <v>1.959967242364451</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.853315305288477</v>
+        <v>3.975035305534676</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.959967242364451</v>
+        <v>4.003580549096567e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.975035305534676</v>
+        <v>106886134.0984503</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.003580549096567e-15</v>
+        <v>1.108448310364693e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>106886134.0984503</v>
+        <v>45.73948915475312</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.108448310364693e-06</v>
+        <v>0.0001607300108854613</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>45.73948915475312</v>
+        <v>10.07842463325434</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001607300108854613</v>
+        <v>1.204168522563331</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.07842463325434</v>
+        <v>0.01632609348925128</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.204168522563331</v>
+        <v>2.871514515645202</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01632609348925128</v>
+        <v>0.9584736361265812</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.871514515645202</v>
+        <v>1.55586053686603</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9584736361265812</v>
+        <v>24</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.55586053686603</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2357049871089756</v>
       </c>
     </row>
@@ -7267,72 +7207,66 @@
         <v>1.411209392100177e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.730619659956265</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.9561553678753438</v>
+        <v>4.864968319860916e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.03245995543568195</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.864968319860916e-06</v>
+        <v>0.1063351027110287</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03245995543568195</v>
+        <v>0.01234981701923724</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1063351027110287</v>
+        <v>1.86560540654101</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01234981701923724</v>
+        <v>1.947725858512769</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.840900688028948</v>
+        <v>3.940980495405345</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.947725858512769</v>
+        <v>4.073070997700946e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.940980495405345</v>
+        <v>106601664.0536269</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.073070997700946e-15</v>
+        <v>1.115424335806916e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>106601664.0536269</v>
+        <v>46.28603170669956</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.115424335806916e-06</v>
+        <v>0.000150398994212363</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>46.28603170669956</v>
+        <v>10.69526936999288</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000150398994212363</v>
+        <v>1.098943073881982</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.69526936999288</v>
+        <v>0.01720395849843719</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.098943073881982</v>
+        <v>2.744515876471142</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01720395849843719</v>
+        <v>0.9579849608434571</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.744515876471142</v>
+        <v>1.536924230328538</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9579849608434571</v>
+        <v>27</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.536924230328538</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2411699618734746</v>
       </c>
     </row>
@@ -7347,72 +7281,66 @@
         <v>1.398001922326076e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.810723448852214</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.8142071845441978</v>
+        <v>4.860078096582759e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.03671713064617909</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.860078096582759e-06</v>
+        <v>0.09778668109146778</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03671713064617909</v>
+        <v>0.01090570232549673</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09778668109146778</v>
+        <v>1.866798882470131</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01090570232549673</v>
+        <v>1.928958280819398</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.83712556046452</v>
+        <v>3.921139039139586</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.928958280819398</v>
+        <v>4.114395790296717e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.921139039139586</v>
+        <v>109156352.4243515</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.114395790296717e-15</v>
+        <v>1.091703711335461e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>109156352.4243515</v>
+        <v>49.02347544029524</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.091703711335461e-06</v>
+        <v>0.000142187591180908</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>49.02347544029524</v>
+        <v>9.074572690049903</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000142187591180908</v>
+        <v>1.211666033612108</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.074572690049903</v>
+        <v>0.01170884520408001</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.211666033612108</v>
+        <v>2.954340065574655</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01170884520408001</v>
+        <v>0.9572613188078876</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.954340065574655</v>
+        <v>1.547126080531522</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9572613188078876</v>
+        <v>36</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.547126080531522</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2246160020280755</v>
       </c>
     </row>
@@ -7427,72 +7355,66 @@
         <v>1.372124461004252e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8953149921802872</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.630401925766626</v>
+        <v>4.854804023182799e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.03903942932266728</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.854804023182799e-06</v>
+        <v>0.09624938398938523</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03903942932266728</v>
+        <v>0.01078515172964279</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09624938398938523</v>
+        <v>1.869265067095514</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01078515172964279</v>
+        <v>1.895324502986952</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.833719267037775</v>
+        <v>3.877323125763109</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.895324502986952</v>
+        <v>4.207911142708709e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.877323125763109</v>
+        <v>105632397.4478242</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.207911142708709e-15</v>
+        <v>1.128022659826863e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>105632397.4478242</v>
+        <v>46.95272837981101</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.128022659826863e-06</v>
+        <v>0.0001413371428482569</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>46.95272837981101</v>
+        <v>8.052758271610911</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001413371428482569</v>
+        <v>1.357770383288767</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.052758271610911</v>
+        <v>0.009165277799007792</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.357770383288767</v>
+        <v>3.03345389259268</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009165277799007792</v>
+        <v>0.9564404021887192</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.03345389259268</v>
+        <v>1.592038475765221</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9564404021887192</v>
+        <v>36</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.592038475765221</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2252831106973762</v>
       </c>
     </row>
@@ -7507,72 +7429,66 @@
         <v>1.334716960924589e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.977706983083466</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.4190054386283038</v>
+        <v>4.849455450001048e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.03958478018610851</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.849455450001048e-06</v>
+        <v>0.1000946183632407</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03958478018610851</v>
+        <v>0.01158187211676704</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1000946183632407</v>
+        <v>1.874886223967013</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01158187211676704</v>
+        <v>1.843181165183847</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.828709530566128</v>
+        <v>4.303725656720912</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.843181165183847</v>
+        <v>4.709317595003214e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.303725656720912</v>
+        <v>91802674.79165202</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.709317595003214e-15</v>
+        <v>1.302530294654034e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>91802674.79165202</v>
+        <v>39.68886235001413</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.302530294654034e-06</v>
+        <v>0.0001406240423564335</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>39.68886235001413</v>
+        <v>7.801422550226462</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001406240423564335</v>
+        <v>1.434352083495533</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.801422550226462</v>
+        <v>0.008558687719846619</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.434352083495533</v>
+        <v>3.082088636829336</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008558687719846619</v>
+        <v>0.95551932711807</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.082088636829336</v>
+        <v>1.580769110670398</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.95551932711807</v>
+        <v>36</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.580769110670398</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2489987576005252</v>
       </c>
     </row>
@@ -7587,72 +7503,66 @@
         <v>1.286665409999098e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.048915620913272</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.1980325592650134</v>
+        <v>4.844338911685145e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.03793007798866384</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.844338911685145e-06</v>
+        <v>0.1108563248603651</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03793007798866384</v>
+        <v>0.01371937333448307</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1108563248603651</v>
+        <v>1.868990288123737</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01371937333448307</v>
+        <v>1.813469924941801</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.82467549498338</v>
+        <v>4.507097236439773</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.813469924941801</v>
+        <v>5.789513150570613e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.507097236439773</v>
+        <v>73434727.548921</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.789513150570613e-15</v>
+        <v>1.621392051721337e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>73434727.548921</v>
+        <v>31.22087141390749</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.621392051721337e-06</v>
+        <v>0.000138976854080847</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>31.22087141390749</v>
+        <v>8.885371754378708</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000138976854080847</v>
+        <v>1.274755548853824</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.885371754378708</v>
+        <v>0.01097219917226761</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.274755548853824</v>
+        <v>3.060315326707536</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01097219917226761</v>
+        <v>0.9557717412652366</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.060315326707536</v>
+        <v>1.604030961067428</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9557717412652366</v>
+        <v>36</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.604030961067428</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2947432172964003</v>
       </c>
     </row>
@@ -7667,72 +7577,66 @@
         <v>1.230994230657725e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.092094193750498</v>
+        <v>4.277381760670102e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.01012850477377514</v>
+        <v>4.83983317685707e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.277381760670102e-07</v>
+        <v>-0.03279390039450027</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.83983317685707e-06</v>
+        <v>0.1318002056743966</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03279390039450027</v>
+        <v>0.01842752330368258</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1318002056743966</v>
+        <v>1.857826362772017</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01842752330368258</v>
+        <v>1.798760306189509</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.813242926883864</v>
+        <v>4.670613304160274</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.798760306189509</v>
+        <v>7.946532533924756e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.670613304160274</v>
+        <v>52228596.32289206</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>7.946532533924756e-15</v>
+        <v>2.267007462643048e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>52228596.32289206</v>
+        <v>21.67676023212017</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.267007462643048e-06</v>
+        <v>0.0001602150514075139</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.67676023212017</v>
+        <v>10.51327561576531</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001602150514075139</v>
+        <v>1.166547083202753</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.51327561576531</v>
+        <v>0.01770840367700374</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.166547083202753</v>
+        <v>2.870930187675501</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01770840367700374</v>
+        <v>0.9537722656539405</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.870930187675501</v>
+        <v>1.630281650751749</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9537722656539405</v>
+        <v>36</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.630281650751749</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2829824805358826</v>
       </c>
     </row>
@@ -7747,72 +7651,66 @@
         <v>1.176592919525251e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.08472548365915</v>
+        <v>4.252354533937335e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.05541316054545575</v>
+        <v>4.836440776664456e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.252354533937335e-07</v>
+        <v>-0.02241287201257819</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.836440776664456e-06</v>
+        <v>0.1666695087557286</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02241287201257819</v>
+        <v>0.02823628794862828</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1666695087557286</v>
+        <v>1.87238573734308</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02823628794862828</v>
+        <v>1.525065507389661</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.843372399308554</v>
+        <v>5.207041448049639</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.525065507389661</v>
+        <v>1.246805479051394e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.207041448049639</v>
+        <v>33713621.31704035</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.246805479051394e-14</v>
+        <v>3.504929214521787e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>33713621.31704035</v>
+        <v>14.17129408981693</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.504929214521787e-06</v>
+        <v>0.0002084357023315655</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>14.17129408981693</v>
+        <v>10.60231062593959</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002084357023315655</v>
+        <v>1.306613482950566</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.60231062593959</v>
+        <v>0.02343004690595082</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.306613482950566</v>
+        <v>2.625458612351299</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02343004690595082</v>
+        <v>0.953240408224837</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.625458612351299</v>
+        <v>1.51393364138858</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.953240408224837</v>
+        <v>35</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.51393364138858</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2120553496470173</v>
       </c>
     </row>
@@ -7827,72 +7725,66 @@
         <v>1.142782889529949e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.035672806715212</v>
+        <v>4.186156488100368e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.0635040243474263</v>
+        <v>4.834790183809228e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.186156488100368e-07</v>
+        <v>-0.004392952887720642</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.834790183809228e-06</v>
+        <v>0.221369382197627</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.004392952887720642</v>
+        <v>0.04891577969014201</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.221369382197627</v>
+        <v>1.835586750390597</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04891577969014201</v>
+        <v>1.435508644509838</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.788375747326574</v>
+        <v>4.781575523579758</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.435508644509838</v>
+        <v>2.179842377523055e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.781575523579758</v>
+        <v>19366164.8138263</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.179842377523055e-14</v>
+        <v>6.087920198628329e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>19366164.8138263</v>
+        <v>8.175462642716376</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.087920198628329e-06</v>
+        <v>0.0002369797309718678</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.175462642716376</v>
+        <v>11.57802570684645</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002369797309718678</v>
+        <v>1.258422140571738</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.57802570684645</v>
+        <v>0.03176729390962089</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.258422140571738</v>
+        <v>2.434388146895668</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03176729390962089</v>
+        <v>0.9528532760661923</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.434388146895668</v>
+        <v>1.632493613156826</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9528532760661923</v>
+        <v>35</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.632493613156826</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1783581716330183</v>
       </c>
     </row>
@@ -7907,72 +7799,66 @@
         <v>1.170482983244403e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.143164360108766</v>
+        <v>5.592333741614113e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.4266785571558618</v>
+        <v>4.835734489697008e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.592333741614113e-07</v>
+        <v>0.02178850114363291</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.835734489697008e-06</v>
+        <v>0.2864337122487693</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02178850114363291</v>
+        <v>0.08234584269479397</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2864337122487693</v>
+        <v>1.784897633688778</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.08234584269479397</v>
+        <v>1.47285076704516</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.734803085156544</v>
+        <v>3.871402812364088</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.47285076704516</v>
+        <v>2.622964234038055e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.871402812364088</v>
+        <v>16898150.85021751</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.622964234038055e-14</v>
+        <v>6.828609079739711e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>16898150.85021751</v>
+        <v>7.489808852759458</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.828609079739711e-06</v>
+        <v>0.0002287566322772179</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>7.489808852759458</v>
+        <v>13.77527122283139</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002287566322772179</v>
+        <v>1.03100280995247</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.77527122283139</v>
+        <v>0.04340842327711748</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.03100280995247</v>
+        <v>2.36899963048123</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.04340842327711748</v>
+        <v>0.9521191993920046</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.36899963048123</v>
+        <v>1.634123578273109</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9521191993920046</v>
+        <v>35</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.634123578273109</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1810936520040351</v>
       </c>
     </row>
@@ -7987,72 +7873,66 @@
         <v>1.310765453647548e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.702865732962104</v>
+        <v>7.542610435454256e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>3.378703391600407</v>
+        <v>4.840032494215052e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.542610435454256e-07</v>
+        <v>0.04638924146120109</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.840032494215052e-06</v>
+        <v>0.316665198364003</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04638924146120109</v>
+        <v>0.1022874472327848</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.316665198364003</v>
+        <v>1.699485376116318</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.1022874472327848</v>
+        <v>1.504390087130638</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.63569518355199</v>
+        <v>4.529835929794674</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.504390087130638</v>
+        <v>2.633366109897459e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.529835929794674</v>
+        <v>17355060.73757407</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.633366109897459e-14</v>
+        <v>6.406031498969832e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>17355060.73757407</v>
+        <v>7.931649563461245</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.406031498969832e-06</v>
+        <v>0.0001903568295608861</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>7.931649563461245</v>
+        <v>12.75862589994757</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001903568295608861</v>
+        <v>1.048908500349063</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>12.75862589994757</v>
+        <v>0.03098676724284664</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.048908500349063</v>
+        <v>2.597955619922237</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.03098676724284664</v>
+        <v>0.9452942433069808</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.597955619922237</v>
+        <v>1.789913552126875</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9452942433069808</v>
+        <v>36</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.789913552126875</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1846713216185134</v>
       </c>
     </row>
@@ -8067,72 +7947,66 @@
         <v>1.569626279377275e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.371411506781824</v>
+        <v>9.313716290051614e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>6.880540758836933</v>
+        <v>4.847787923095774e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.313716290051614e-07</v>
+        <v>0.0595386414921782</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.847787923095774e-06</v>
+        <v>0.298180910918051</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0595386414921782</v>
+        <v>0.09239271244226749</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.298180910918051</v>
+        <v>1.640009357124196</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.09239271244226749</v>
+        <v>1.512491188570947</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.561603511672426</v>
+        <v>5.3415556261389</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.512491188570947</v>
+        <v>4.350469740069673e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.3415556261389</v>
+        <v>10874710.37171393</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.350469740069673e-14</v>
+        <v>1.002248561871184e-05</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>10874710.37171393</v>
+        <v>5.144836178025607</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.002248561871184e-05</v>
+        <v>0.0001951675640724603</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>5.144836178025607</v>
+        <v>8.888012341683034</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001951675640724603</v>
+        <v>1.696271373560788</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.888012341683034</v>
+        <v>0.01541760587963656</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.696271373560788</v>
+        <v>2.846184200576549</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01541760587963656</v>
+        <v>0.9386402445508456</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.846184200576549</v>
+        <v>1.816090502909635</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9386402445508456</v>
+        <v>13</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.816090502909635</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1516373313916867</v>
       </c>
     </row>
@@ -8147,72 +8021,66 @@
         <v>1.898074669631769e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2.69944273640409</v>
+        <v>1.055132336326299e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>8.033158087396274</v>
+        <v>4.858412361924464e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.055132336326299e-06</v>
+        <v>0.06179984964144329</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.858412361924464e-06</v>
+        <v>0.2577929635061348</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.06179984964144329</v>
+        <v>0.0702620227597959</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2577929635061348</v>
+        <v>1.625782655349014</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0702620227597959</v>
+        <v>1.417955519099562</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.542859738440891</v>
+        <v>4.704490340249115</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.417955519099562</v>
+        <v>8.214714985191222e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.704490340249115</v>
+        <v>6071854.119076575</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.214714985191222e-14</v>
+        <v>1.808028887068925e-05</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>6071854.119076575</v>
+        <v>3.028552854635893</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.808028887068925e-05</v>
+        <v>0.0002034696599501179</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.028552854635893</v>
+        <v>8.81426629260076</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002034696599501179</v>
+        <v>1.705249860785084</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.81426629260076</v>
+        <v>0.01580782041372226</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.705249860785084</v>
+        <v>2.736337310919769</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01580782041372226</v>
+        <v>0.9339359212811829</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.736337310919769</v>
+        <v>1.84801602527748</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9339359212811829</v>
+        <v>13</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.84801602527748</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1325927935079243</v>
       </c>
     </row>
@@ -8227,72 +8095,66 @@
         <v>2.233440169441223e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2.709041820090933</v>
+        <v>1.108080431973045e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>7.286516846269638</v>
+        <v>4.870833763418664e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.108080431973045e-06</v>
+        <v>0.05786622721782177</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.870833763418664e-06</v>
+        <v>0.2198611723341387</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.05786622721782177</v>
+        <v>0.05168681239686294</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2198611723341387</v>
+        <v>1.607362608276418</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05168681239686294</v>
+        <v>1.41848152018079</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.520635443061988</v>
+        <v>3.953773989567995</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.41848152018079</v>
+        <v>1.163038207397472e-13</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.953773989567995</v>
+        <v>4416602.804282043</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.163038207397472e-13</v>
+        <v>2.4653078072258e-05</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>4416602.804282043</v>
+        <v>2.268666561273764</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.4653078072258e-05</v>
+        <v>0.0001979140259791992</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2.268666561273764</v>
+        <v>10.14179676542057</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001979140259791992</v>
+        <v>1.277562517998005</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.14179676542057</v>
+        <v>0.02035665329549417</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.277562517998005</v>
+        <v>2.548275335910249</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02035665329549417</v>
+        <v>0.9341572262693784</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.548275335910249</v>
+        <v>1.852756023680672</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9341572262693784</v>
+        <v>13</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.852756023680672</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1281434016165759</v>
       </c>
     </row>
@@ -8307,72 +8169,66 @@
         <v>2.534847189689389e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.565079107091045</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>5.910537426894628</v>
+        <v>4.883954304249837e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.0520446908715109</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.883954304249837e-06</v>
+        <v>0.1933427742357456</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.0520446908715109</v>
+        <v>0.04008982322293336</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1933427742357456</v>
+        <v>1.585512445159776</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04008982322293336</v>
+        <v>1.416931768771998</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.493942304400372</v>
+        <v>3.77550707324218</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.416931768771998</v>
+        <v>1.275460712327876e-13</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.77550707324218</v>
+        <v>4085913.985965065</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.275460712327876e-13</v>
+        <v>2.646455745192466e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>4085913.985965065</v>
+        <v>2.129342515432038</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.646455745192466e-05</v>
+        <v>0.0002055640819371246</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2.129342515432038</v>
+        <v>11.86626611074202</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002055640819371246</v>
+        <v>1.063557805144191</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.86626611074202</v>
+        <v>0.02894512304174429</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.063557805144191</v>
+        <v>2.251876321524891</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02894512304174429</v>
+        <v>0.9333798376168987</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.251876321524891</v>
+        <v>1.859592303401272</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9333798376168987</v>
+        <v>13</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.859592303401272</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1305890359063801</v>
       </c>
     </row>
@@ -8387,72 +8243,66 @@
         <v>2.789664006024253e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.374667104469905</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4.565327218296371</v>
+        <v>4.897058024124995e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.04642855404251278</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.897058024124995e-06</v>
+        <v>0.1763553930762663</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04642855404251278</v>
+        <v>0.03325547942707305</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1763553930762663</v>
+        <v>1.579314161405407</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03325547942707305</v>
+        <v>1.430588226526554</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.482910906503314</v>
+        <v>3.747511103432374</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.430588226526554</v>
+        <v>1.294588681218124e-13</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.747511103432374</v>
+        <v>4080443.851710395</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.294588681218124e-13</v>
+        <v>2.649121907860649e-05</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>4080443.851710395</v>
+        <v>2.155493005813636</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.649121907860649e-05</v>
+        <v>0.0002124248184866716</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2.155493005813636</v>
+        <v>12.26162733669653</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002124248184866716</v>
+        <v>1.049203089459956</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>12.26162733669653</v>
+        <v>0.03193754144765817</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.049203089459956</v>
+        <v>2.127304196458018</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.03193754144765817</v>
+        <v>0.9345069518249352</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.127304196458018</v>
+        <v>1.859326497344066</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9345069518249352</v>
+        <v>13</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.859326497344066</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1316301610717828</v>
       </c>
     </row>
@@ -8467,72 +8317,66 @@
         <v>2.999299964258065e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2.182432207356254</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>3.43381161319947</v>
+        <v>4.909801581112541e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.04167890436666079</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.909801581112541e-06</v>
+        <v>0.165401546189855</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.04167890436666079</v>
+        <v>0.0290930134719862</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.165401546189855</v>
+        <v>1.572624239918913</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0290930134719862</v>
+        <v>1.454055672833062</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.475259600208045</v>
+        <v>3.746297749453192</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.454055672833062</v>
+        <v>1.295427401900731e-13</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.746297749453192</v>
+        <v>4021902.515379749</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.295427401900731e-13</v>
+        <v>2.672420382156554e-05</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>4021902.515379749</v>
+        <v>2.095444482182589</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.672420382156554e-05</v>
+        <v>0.0002024798577220658</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2.095444482182589</v>
+        <v>10.59548827496209</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0002024798577220658</v>
+        <v>1.198929796998423</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.59548827496209</v>
+        <v>0.02273127402625537</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.198929796998423</v>
+        <v>2.448965040858948</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02273127402625537</v>
+        <v>0.9353197639308574</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.448965040858948</v>
+        <v>1.875209953583487</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9353197639308574</v>
+        <v>10</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.875209953583487</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1276097112024064</v>
       </c>
     </row>
@@ -8547,72 +8391,66 @@
         <v>3.170097151103226e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.004059667541477</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.526488317594053</v>
+        <v>4.922050250821575e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.03782027710168745</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.922050250821575e-06</v>
+        <v>0.1579860255960916</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.03782027710168745</v>
+        <v>0.02638842435531249</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1579860255960916</v>
+        <v>1.566726306540777</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02638842435531249</v>
+        <v>1.430530042946801</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.469997837651453</v>
+        <v>3.744528129997207</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.430530042946801</v>
+        <v>1.296652098384934e-13</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.744528129997207</v>
+        <v>3987161.559218889</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.296652098384934e-13</v>
+        <v>2.679080626435856e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>3987161.559218889</v>
+        <v>2.061347136613883</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.679080626435856e-05</v>
+        <v>0.0002085588686802409</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2.061347136613883</v>
+        <v>9.087248134794493</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002085588686802409</v>
+        <v>1.550027941953684</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.087248134794493</v>
+        <v>0.0172223906638112</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.550027941953684</v>
+        <v>2.61550284326561</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0172223906638112</v>
+        <v>0.9358046292488277</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.61550284326561</v>
+        <v>1.854488110245412</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9358046292488277</v>
+        <v>10</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.854488110245412</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1232827863418167</v>
       </c>
     </row>
@@ -8627,72 +8465,66 @@
         <v>3.309891064733328e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.843305998187399</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.806398189160833</v>
+        <v>4.933817396519745e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.03488176090599476</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.933817396519745e-06</v>
+        <v>0.1524887885309594</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.03488176090599476</v>
+        <v>0.02446835268776271</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1524887885309594</v>
+        <v>1.564295551934168</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02446835268776271</v>
+        <v>1.412689658562464</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.469045364512857</v>
+        <v>3.747706731240113</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.412689658562464</v>
+        <v>1.294453531403128e-13</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.747706731240113</v>
+        <v>3995226.274608551</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.294453531403128e-13</v>
+        <v>2.67099802330594e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>3995226.274608551</v>
+        <v>2.066185107551767</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.67099802330594e-05</v>
+        <v>0.0002008686860294462</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2.066185107551767</v>
+        <v>9.657462723704541</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002008686860294462</v>
+        <v>1.369097337862264</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.657462723704541</v>
+        <v>0.01873433663244652</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.369097337862264</v>
+        <v>2.575687744881479</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01873433663244652</v>
+        <v>0.9370287865411787</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.575687744881479</v>
+        <v>1.859918649617731</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9370287865411787</v>
+        <v>13</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.859918649617731</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1253842304239954</v>
       </c>
     </row>
@@ -8707,72 +8539,66 @@
         <v>3.424810839839449e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.699305436321352</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.231984109243391</v>
+        <v>4.945153991433929e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.03241592964571763</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.945153991433929e-06</v>
+        <v>0.1484944649665509</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.03241592964571763</v>
+        <v>0.02310001003435855</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1484944649665509</v>
+        <v>1.567210871033385</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02310001003435855</v>
+        <v>1.40362804204066</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.471453032604905</v>
+        <v>3.772235372714918</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.40362804204066</v>
+        <v>1.277674113499456e-13</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.772235372714918</v>
+        <v>4107296.394882458</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.277674113499456e-13</v>
+        <v>2.613321216191688e-05</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>4107296.394882458</v>
+        <v>2.155421366982409</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.613321216191688e-05</v>
+        <v>0.0002050368516559727</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2.155421366982409</v>
+        <v>11.77605498075784</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002050368516559727</v>
+        <v>1.076719720752443</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.77605498075784</v>
+        <v>0.02843358195726128</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.076719720752443</v>
+        <v>2.277059088044725</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02843358195726128</v>
+        <v>0.9375500399430414</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.277059088044725</v>
+        <v>1.87522972627683</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9375500399430414</v>
+        <v>15</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.87522972627683</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1303228066891894</v>
       </c>
     </row>
@@ -8787,72 +8613,66 @@
         <v>3.517220731899154e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.570842386815202</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.7736196583436641</v>
+        <v>4.955975902580831e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02985957068105842</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.955975902580831e-06</v>
+        <v>0.1461369336127648</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02985957068105842</v>
+        <v>0.02224587660934891</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1461369336127648</v>
+        <v>1.565097365228554</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02224587660934891</v>
+        <v>1.389633647811224</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.469092080038159</v>
+        <v>3.821549037549872</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.389633647811224</v>
+        <v>1.244912388192287e-13</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.821549037549872</v>
+        <v>4250672.450469418</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.244912388192287e-13</v>
+        <v>2.525742353231665e-05</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>4250672.450469418</v>
+        <v>2.249334628097817</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.525742353231665e-05</v>
+        <v>0.0002163061105022777</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2.249334628097817</v>
+        <v>12.41668074381724</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002163061105022777</v>
+        <v>1.042590158820837</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>12.41668074381724</v>
+        <v>0.03334876977842464</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.042590158820837</v>
+        <v>2.091366434221558</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.03334876977842464</v>
+        <v>0.938802161346085</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.091366434221558</v>
+        <v>1.869344984637242</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.938802161346085</v>
+        <v>15</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.869344984637242</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1293533973483703</v>
       </c>
     </row>
@@ -8867,72 +8687,66 @@
         <v>3.588613358055357e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.457300593367847</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.4110970314489828</v>
+        <v>4.966142479313921e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02735844327800519</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.966142479313921e-06</v>
+        <v>0.1449739590462591</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.02735844327800519</v>
+        <v>0.0217642045134445</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1449739590462591</v>
+        <v>1.567679207306973</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0217642045134445</v>
+        <v>1.371290184726659</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.471019635180838</v>
+        <v>3.90749977879464</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.371290184726659</v>
+        <v>1.19074766336386e-13</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.90749977879464</v>
+        <v>4450841.415262995</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.19074766336386e-13</v>
+        <v>2.414816444343833e-05</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>4450841.415262995</v>
+        <v>2.358869847478709</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.414816444343833e-05</v>
+        <v>0.000209537506645707</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2.358869847478709</v>
+        <v>11.07128098002815</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000209537506645707</v>
+        <v>1.153829564079575</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.07128098002815</v>
+        <v>0.02568369581379577</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.153829564079575</v>
+        <v>2.341117970252041</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02568369581379577</v>
+        <v>0.9385823099552469</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.341117970252041</v>
+        <v>1.862997953794019</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9385823099552469</v>
+        <v>22</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.862997953794019</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1248506779619709</v>
       </c>
     </row>
@@ -8947,72 +8761,66 @@
         <v>3.641806925502173e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.357500320159655</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.1261798924611108</v>
+        <v>4.975644493049726e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02524350570356528</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.975644493049726e-06</v>
+        <v>0.1443920509182149</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02524350570356528</v>
+        <v>0.0214847428081722</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1443920509182149</v>
+        <v>1.593794620883795</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.0214847428081722</v>
+        <v>1.339324214907184</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.497196267942951</v>
+        <v>4.077113630455065</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.339324214907184</v>
+        <v>1.093734801358283e-13</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.077113630455065</v>
+        <v>4931520.389464934</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.093734801358283e-13</v>
+        <v>2.219140344626322e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>4931520.389464934</v>
+        <v>2.659951372408539</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.219140344626322e-05</v>
+        <v>0.0002117986759881892</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2.659951372408539</v>
+        <v>9.352871088040674</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002117986759881892</v>
+        <v>1.47111637806016</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.352871088040674</v>
+        <v>0.01852734282993885</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.47111637806016</v>
+        <v>2.543660999467328</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01852734282993885</v>
+        <v>0.9401446641577582</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.543660999467328</v>
+        <v>1.857425395321366</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9401446641577582</v>
+        <v>22</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.857425395321366</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1227497366526558</v>
       </c>
     </row>
@@ -9027,72 +8835,66 @@
         <v>3.679948212161398e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.26968810386453</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.09764514741003616</v>
+        <v>4.984590035678999e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02366997973828288</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.984590035678999e-06</v>
+        <v>0.1440245365014969</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02366997973828288</v>
+        <v>0.0213021091190767</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1440245365014969</v>
+        <v>1.603053185016104</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.0213021091190767</v>
+        <v>1.31402006907417</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.509000056713284</v>
+        <v>4.569127342041256</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.31402006907417</v>
+        <v>8.623598115630642e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.569127342041256</v>
+        <v>6199830.619291477</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>8.623598115630642e-14</v>
+        <v>1.771178445654375e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>6199830.619291477</v>
+        <v>3.314729994898817</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.771178445654375e-05</v>
+        <v>0.0002034632229865467</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>3.314729994898817</v>
+        <v>9.044358006670151</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002034632229865467</v>
+        <v>1.52627801629092</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.044358006670151</v>
+        <v>0.01664337541685505</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.52627801629092</v>
+        <v>2.635363003208193</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01664337541685505</v>
+        <v>0.9413361393467825</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.635363003208193</v>
+        <v>1.842824051494297</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9413361393467825</v>
+        <v>22</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.842824051494297</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1291238592527578</v>
       </c>
     </row>
@@ -9107,72 +8909,66 @@
         <v>3.7060360777841e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.192028723040744</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.2743849313342448</v>
+        <v>4.9931031164063e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02243306974836335</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.9931031164063e-06</v>
+        <v>0.1438157310231953</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.02243306974836335</v>
+        <v>0.02118537304298877</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1438157310231953</v>
+        <v>1.638782452051957</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02118537304298877</v>
+        <v>1.368725628885287</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.548476309599968</v>
+        <v>4.079865386754426</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.368725628885287</v>
+        <v>6.613153400152819e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.079865386754426</v>
+        <v>7863254.898314836</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>6.613153400152819e-14</v>
+        <v>1.408075184204612e-05</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>7863254.898314836</v>
+        <v>4.088964170922354</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.408075184204612e-05</v>
+        <v>0.0001979414714732197</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>4.088964170922354</v>
+        <v>11.57473317472468</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001979414714732197</v>
+        <v>1.102332049097405</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>11.57473317472468</v>
+        <v>0.02651909939001076</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.102332049097405</v>
+        <v>2.415075242554488</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.02651909939001076</v>
+        <v>0.9455479717782561</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.415075242554488</v>
+        <v>1.83804638370682</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9455479717782561</v>
+        <v>22</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.83804638370682</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1408963823561621</v>
       </c>
     </row>
@@ -9187,72 +8983,66 @@
         <v>3.722719888827274e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.122956639232999</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.4150046797073843</v>
+        <v>5.001244206297315e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02141061465885618</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5.001244206297315e-06</v>
+        <v>0.1437644352223059</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.02141061465885618</v>
+        <v>0.02112608887557099</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1437644352223059</v>
+        <v>1.711485638141299</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02112608887557099</v>
+        <v>1.514745021122497</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.624313480181174</v>
+        <v>3.418271073240555</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.514745021122497</v>
+        <v>6.64413848768081e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.418271073240555</v>
+        <v>7689388.959773486</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>6.64413848768081e-14</v>
+        <v>1.482292893706613e-05</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>7689388.959773486</v>
+        <v>3.928460002261297</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.482292893706613e-05</v>
+        <v>0.000224946144692486</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>3.928460002261297</v>
+        <v>13.09201684619883</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.000224946144692486</v>
+        <v>1.012814443798078</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>13.09201684619883</v>
+        <v>0.03855597279930727</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.012814443798078</v>
+        <v>2.112633219807638</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.03855597279930727</v>
+        <v>0.9520853042078128</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.112633219807638</v>
+        <v>1.803833543956533</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9520853042078128</v>
+        <v>21</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.803833543956533</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1368383924682106</v>
       </c>
     </row>
@@ -9267,72 +9057,66 @@
         <v>3.732090823273662e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.060925948801312</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.5281319674260985</v>
+        <v>5.00908337487432e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02068155340323578</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>5.00908337487432e-06</v>
+        <v>0.1437707463157794</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.02068155340323578</v>
+        <v>0.02109743153617533</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1437707463157794</v>
+        <v>1.762562319678512</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02109743153617533</v>
+        <v>1.490834282343711</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.687172607419486</v>
+        <v>3.470115845003136</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.490834282343711</v>
+        <v>6.447089943933676e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.470115845003136</v>
+        <v>7541383.953210559</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>6.447089943933676e-14</v>
+        <v>1.546392817295147e-05</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>7541383.953210559</v>
+        <v>3.66661941864888</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.546392817295147e-05</v>
+        <v>0.00023070484272798</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>3.66661941864888</v>
+        <v>11.79902754868467</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.00023070484272798</v>
+        <v>1.157328517030657</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.79902754868467</v>
+        <v>0.03211804787783742</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.157328517030657</v>
+        <v>2.283714118171907</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.03211804787783742</v>
+        <v>0.9552793771857733</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.283714118171907</v>
+        <v>1.750231205544012</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9552793771857733</v>
+        <v>21</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.750231205544012</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1337235422527519</v>
       </c>
     </row>
@@ -9347,72 +9131,66 @@
         <v>3.735691317199921e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.004392301287244</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.6205977841366725</v>
+        <v>5.016728067437041e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02031202236352467</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>5.016728067437041e-06</v>
+        <v>0.1437970848851526</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.02031202236352467</v>
+        <v>0.02109001780353746</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1437970848851526</v>
+        <v>1.792665763080374</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02109001780353746</v>
+        <v>1.394792515321634</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.725466203547837</v>
+        <v>4.262764207250148</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.394792515321634</v>
+        <v>4.423203424055324e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.262764207250148</v>
+        <v>10516162.41620452</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>4.423203424055324e-14</v>
+        <v>1.120559116095486e-05</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>10516162.41620452</v>
+        <v>4.891606156962865</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.120559116095486e-05</v>
+        <v>0.0002099221252969432</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>4.891606156962865</v>
+        <v>10.07161291353912</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002099221252969432</v>
+        <v>1.410674807611428</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.07161291353912</v>
+        <v>0.02129395179646869</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.410674807611428</v>
+        <v>2.596499373619411</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02129395179646869</v>
+        <v>0.9573382072082598</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.596499373619411</v>
+        <v>1.733738216146187</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9573382072082598</v>
+        <v>21</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.733738216146187</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1631700439369286</v>
       </c>
     </row>
@@ -9427,72 +9205,66 @@
         <v>3.734672762391669e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.9517884141183465</v>
+        <v>1.112976377903063e-06</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.6979888645972796</v>
+        <v>5.024320320434237e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.112976377903063e-06</v>
+        <v>0.02040168562256769</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>5.024320320434237e-06</v>
+        <v>0.1438088452134541</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.02040168562256769</v>
+        <v>0.02109717116132801</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1438088452134541</v>
+        <v>1.820755931990553</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02109717116132801</v>
+        <v>1.469424191308276</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.768902035076906</v>
+        <v>4.745341357338019</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.469424191308276</v>
+        <v>1.898543182553752e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.745341357338019</v>
+        <v>23687866.18568134</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.898543182553752e-14</v>
+        <v>4.99994752690839e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>23687866.18568134</v>
+        <v>10.6530106629061</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>4.99994752690839e-06</v>
+        <v>0.0001377362232015108</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>10.6530106629061</v>
+        <v>7.81596671425616</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001377362232015108</v>
+        <v>1.930537477182306</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.81596671425616</v>
+        <v>0.008414214374226641</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.930537477182306</v>
+        <v>3.125007557863658</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008414214374226641</v>
+        <v>0.9592454452683894</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.125007557863658</v>
+        <v>1.675707571976718</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9592454452683894</v>
+        <v>21</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.675707571976718</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.3017220389467074</v>
       </c>
     </row>
@@ -9869,7 +9641,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50163406041559</v>
+        <v>1.5348470967538</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.328634916090417</v>
@@ -9958,7 +9730,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.506208436445861</v>
+        <v>1.537758716283631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.191798810257322</v>
@@ -10047,7 +9819,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.510437980304269</v>
+        <v>1.544238061429685</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.33486862235121</v>
@@ -10136,7 +9908,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.503536032264015</v>
+        <v>1.536564511804982</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.368054346366128</v>
@@ -10225,7 +9997,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.537825562545931</v>
+        <v>1.570682359058672</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.24608378993329</v>
@@ -10314,7 +10086,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543733271952185</v>
+        <v>1.575048423027401</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.333451416725413</v>
@@ -10403,7 +10175,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.520994633221634</v>
+        <v>1.551922873631171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.191856168098124</v>
@@ -10492,7 +10264,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.551572584309931</v>
+        <v>1.581034573464758</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.2838923922379</v>
@@ -10581,7 +10353,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54090805665751</v>
+        <v>1.569566874075203</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.360415817300101</v>
@@ -10670,7 +10442,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.505742240143523</v>
+        <v>1.537135095488368</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.287221496068993</v>
@@ -10759,7 +10531,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.493905945313526</v>
+        <v>1.522994169771111</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.368480271896736</v>
@@ -10848,7 +10620,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.481679397032302</v>
+        <v>1.507901100951778</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.296692763069557</v>
@@ -10937,7 +10709,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.513971853642728</v>
+        <v>1.539675088770657</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.30576101006169</v>
@@ -11026,7 +10798,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525988841130165</v>
+        <v>1.552322765182304</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.48690241729154</v>
@@ -11115,7 +10887,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.547046242962217</v>
+        <v>1.571030229137169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.363156400001135</v>
@@ -11204,7 +10976,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.541396078312161</v>
+        <v>1.566592600294939</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.521097072290941</v>
@@ -11293,7 +11065,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.566358937604085</v>
+        <v>1.589355098511996</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.504310406855216</v>
@@ -11382,7 +11154,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587055447031168</v>
+        <v>1.605058632167144</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.397251364344955</v>
@@ -11471,7 +11243,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586307860475419</v>
+        <v>1.603082390329694</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.410237801113001</v>
@@ -11560,7 +11332,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589014310376672</v>
+        <v>1.604850552284204</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.490243222405365</v>
@@ -11649,7 +11421,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.61812442141187</v>
+        <v>1.629043177265967</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.490779427936389</v>
@@ -11738,7 +11510,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.617762144510391</v>
+        <v>1.626985652484145</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.458347343980444</v>
@@ -11827,7 +11599,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.590650219889638</v>
+        <v>1.604859400335369</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.498809821943162</v>
@@ -11916,7 +11688,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.568821267752803</v>
+        <v>1.585132548978797</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.27007445677911</v>
@@ -12005,7 +11777,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.61398018691627</v>
+        <v>1.623908643288556</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.274970398395911</v>
@@ -12094,7 +11866,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.631101850457967</v>
+        <v>1.641579670948689</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.320399587958386</v>
@@ -12183,7 +11955,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.592974317085867</v>
+        <v>1.610464405634841</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.323678972347876</v>
@@ -12272,7 +12044,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.587891640992764</v>
+        <v>1.604650700352645</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.369939069041812</v>
@@ -12361,7 +12133,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.573087384454175</v>
+        <v>1.586461998318</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.373495688658289</v>
@@ -12450,7 +12222,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557706039834545</v>
+        <v>1.581394433935265</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.443300891696643</v>
@@ -12539,7 +12311,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.544850790229274</v>
+        <v>1.569552532155658</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.479190855928043</v>
@@ -12628,7 +12400,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505294532674988</v>
+        <v>1.532907431946182</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.346460408173054</v>
@@ -12717,7 +12489,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.498866846870668</v>
+        <v>1.526446509775913</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.326714141592524</v>
@@ -12806,7 +12578,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.494292638728441</v>
+        <v>1.52278885252245</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.369620508396078</v>
@@ -12895,7 +12667,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469708212949061</v>
+        <v>1.498478763754615</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.386688363251786</v>
@@ -12984,7 +12756,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.458483897829524</v>
+        <v>1.48981638598108</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.28671627048495</v>
@@ -13073,7 +12845,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.440382867417527</v>
+        <v>1.471204549888108</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.285732992282323</v>
@@ -13162,7 +12934,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.460264596667944</v>
+        <v>1.492406670330602</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.287612872456406</v>
@@ -13251,7 +13023,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.489755198249746</v>
+        <v>1.521358829993437</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.445114939895269</v>
@@ -13340,7 +13112,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.473941671762952</v>
+        <v>1.511769112177521</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.433052886136858</v>
@@ -13429,7 +13201,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.47618489503715</v>
+        <v>1.513512864863759</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.475922049185704</v>
@@ -13518,7 +13290,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.504166907397795</v>
+        <v>1.541107712503139</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.366077985033657</v>
@@ -13607,7 +13379,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.503702191105278</v>
+        <v>1.541066265617176</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.47306466639694</v>
@@ -13696,7 +13468,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.518925125316311</v>
+        <v>1.555235612172673</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.354825434241969</v>
@@ -13785,7 +13557,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.542864178797362</v>
+        <v>1.565727404555624</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.170792862605741</v>
@@ -13874,7 +13646,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510099202434374</v>
+        <v>1.540759077683662</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.257129723280417</v>
@@ -13963,7 +13735,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.527069791323707</v>
+        <v>1.560132668286307</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.257694724534452</v>
@@ -14052,7 +13824,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.526896170703514</v>
+        <v>1.558571041575753</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.317103164664736</v>
@@ -14141,7 +13913,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.537277057838884</v>
+        <v>1.565275161520387</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.181758092274314</v>
@@ -14230,7 +14002,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.563883928197943</v>
+        <v>1.593025003021948</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.311588146275763</v>
@@ -14319,7 +14091,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.575660926903699</v>
+        <v>1.600617978539705</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.304335465971452</v>
@@ -14408,7 +14180,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.602191736474013</v>
+        <v>1.622107497944887</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.329207868757427</v>
@@ -14497,7 +14269,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.586787213203849</v>
+        <v>1.606059940346461</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.323235156875695</v>
@@ -14586,7 +14358,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.577391040115862</v>
+        <v>1.596134078409246</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.272725591943576</v>
@@ -14675,7 +14447,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574033123570806</v>
+        <v>1.587226314812902</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.188939577805241</v>
@@ -14764,7 +14536,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.564349939520037</v>
+        <v>1.573533526322912</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.210041449026372</v>
@@ -14853,7 +14625,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.563666617089661</v>
+        <v>1.574104476036265</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.233460328993686</v>
@@ -14942,7 +14714,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.505819593980976</v>
+        <v>1.522510827191671</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.187313655024549</v>
@@ -15031,7 +14803,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.475956863244393</v>
+        <v>1.492527235470921</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.275698085759135</v>
@@ -15120,7 +14892,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.498778909100997</v>
+        <v>1.516697369467261</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.048342097155727</v>
@@ -15209,7 +14981,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.505063556137742</v>
+        <v>1.524794003820643</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.354618550397316</v>
@@ -15298,7 +15070,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.495605059874059</v>
+        <v>1.515467117649804</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.10494637033248</v>
@@ -15387,7 +15159,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.326887992756014</v>
+        <v>1.344226195542103</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.538417588770479</v>
@@ -15476,7 +15248,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.309294433642233</v>
+        <v>1.326833565287669</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.54106034031539</v>
@@ -15565,7 +15337,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.295944982730733</v>
+        <v>1.31397459690402</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.543576062298551</v>
@@ -15654,7 +15426,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.312252146052147</v>
+        <v>1.321359311707859</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.564040530073027</v>
@@ -15743,7 +15515,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.282134076716288</v>
+        <v>1.297787405060314</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.574944321009096</v>
@@ -15832,7 +15604,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.286059362433231</v>
+        <v>1.300662063514521</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.56629937955992</v>
@@ -15921,7 +15693,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.284479141895158</v>
+        <v>1.300287464053108</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.571164898936994</v>
@@ -16010,7 +15782,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.288009457747636</v>
+        <v>1.305747806389918</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.566962877840423</v>
@@ -16099,7 +15871,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.288900061438236</v>
+        <v>1.306942865526249</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.577191759183398</v>
@@ -16188,7 +15960,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.289638646882018</v>
+        <v>1.305983303215406</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.57231706286486</v>
@@ -16277,7 +16049,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.313458314744761</v>
+        <v>1.329097127525287</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.570889497975801</v>
@@ -16366,7 +16138,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.329853375851963</v>
+        <v>1.345884411431841</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.560260322823801</v>
@@ -16455,7 +16227,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.320785782788717</v>
+        <v>1.336893673496751</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.573719304050737</v>
@@ -16544,7 +16316,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.323524393911758</v>
+        <v>1.337127184261505</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.576995150054861</v>
@@ -16633,7 +16405,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.336186192439573</v>
+        <v>1.348031236632903</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.514700531674593</v>
@@ -16722,7 +16494,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.488181036894679</v>
+        <v>1.503550409517762</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.057736232968352</v>
@@ -16811,7 +16583,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.509898592289979</v>
+        <v>1.521631886440796</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.108846349009558</v>
@@ -16900,7 +16672,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.532763047681597</v>
+        <v>1.543170472828158</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.102079676125667</v>
@@ -16989,7 +16761,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.574095556303931</v>
+        <v>1.591923559451568</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.826877612715682</v>
@@ -17275,7 +17047,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.566397150477387</v>
+        <v>1.59119048382245</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.728670243982895</v>
@@ -17364,7 +17136,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.564689695883261</v>
+        <v>1.585279460573805</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.510186417358239</v>
@@ -17453,7 +17225,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.555806439714067</v>
+        <v>1.581422719968691</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.920879525509009</v>
@@ -17542,7 +17314,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548656633512445</v>
+        <v>1.572369177827166</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.862691610419251</v>
@@ -17631,7 +17403,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.572377125986987</v>
+        <v>1.590843594817223</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.505996665276518</v>
@@ -17720,7 +17492,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.578520978241971</v>
+        <v>1.593557053594794</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.692283920982678</v>
@@ -17809,7 +17581,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.568022640386525</v>
+        <v>1.57975106226856</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.573828895543046</v>
@@ -17898,7 +17670,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.582154062224525</v>
+        <v>1.597718973155084</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.753150635990949</v>
@@ -17987,7 +17759,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.564316987213928</v>
+        <v>1.583294279631581</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.728597016385957</v>
@@ -18076,7 +17848,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.551308558475353</v>
+        <v>1.574308392419038</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.609271837839213</v>
@@ -18165,7 +17937,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553395330437404</v>
+        <v>1.574587880737792</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.730206620159151</v>
@@ -18254,7 +18026,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547679798523129</v>
+        <v>1.566799558192341</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.790543830622359</v>
@@ -18343,7 +18115,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565018635366805</v>
+        <v>1.58462533765022</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.564900581510122</v>
@@ -18432,7 +18204,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.555968828457622</v>
+        <v>1.576066774126574</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.691629628347476</v>
@@ -18521,7 +18293,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.560762075797046</v>
+        <v>1.579694363308725</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.702716869584093</v>
@@ -18610,7 +18382,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556944677856955</v>
+        <v>1.575911014236399</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.674312810338781</v>
@@ -18699,7 +18471,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.595448873835405</v>
+        <v>1.614597462808167</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.809131591685468</v>
@@ -18788,7 +18560,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.631957059162535</v>
+        <v>1.645747212141017</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.786823270990426</v>
@@ -18877,7 +18649,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.63590802969332</v>
+        <v>1.651651146611354</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.747622565243497</v>
@@ -18966,7 +18738,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.641848798003645</v>
+        <v>1.655044016867537</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.589364955214326</v>
@@ -19055,7 +18827,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.662694474653947</v>
+        <v>1.675432089687911</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.828428731746075</v>
@@ -19144,7 +18916,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.655658236799149</v>
+        <v>1.670338933950894</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.758199545016361</v>
@@ -19233,7 +19005,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.621738800918675</v>
+        <v>1.640543853819666</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.876329827275363</v>
@@ -19322,7 +19094,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.610389476024315</v>
+        <v>1.630115906188213</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.725597802211047</v>
@@ -19411,7 +19183,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595275121319871</v>
+        <v>1.614363844489324</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.575621437809795</v>
@@ -19500,7 +19272,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.594692475540202</v>
+        <v>1.613458910047693</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.503500487590135</v>
@@ -19589,7 +19361,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.574473233267272</v>
+        <v>1.593572625205406</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.542808891103055</v>
@@ -19678,7 +19450,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.574148541235855</v>
+        <v>1.589139354895771</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.782843315089097</v>
@@ -19767,7 +19539,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.565989352088455</v>
+        <v>1.576041332644681</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.679915890231982</v>
@@ -19856,7 +19628,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.544774233252077</v>
+        <v>1.563170078122383</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.661866791590371</v>
@@ -19945,7 +19717,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.53398731496585</v>
+        <v>1.550753816608373</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.563247858253626</v>
@@ -20034,7 +19806,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505298575360126</v>
+        <v>1.523439832414869</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.680979458366927</v>
@@ -20123,7 +19895,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.495616503947071</v>
+        <v>1.50805807419405</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.679243604570112</v>
@@ -20212,7 +19984,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.496627091648177</v>
+        <v>1.506914871402388</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.693703153204064</v>
@@ -20301,7 +20073,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.469589889183948</v>
+        <v>1.480855966996764</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.663137105706729</v>
@@ -20390,7 +20162,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.456301145594062</v>
+        <v>1.467045850379482</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.658855044357536</v>
@@ -20479,7 +20251,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.442706148007271</v>
+        <v>1.455792891354597</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.58495328920251</v>
@@ -20568,7 +20340,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.450927427306352</v>
+        <v>1.46584014227823</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.594213997473577</v>
@@ -20657,7 +20429,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.470012374863639</v>
+        <v>1.479907559780928</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.584940282357457</v>
@@ -20746,7 +20518,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.473284829974883</v>
+        <v>1.485315471604947</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.541124463824096</v>
@@ -20835,7 +20607,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.473957511311598</v>
+        <v>1.484747905443615</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.603620440362354</v>
@@ -20924,7 +20696,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.481695929417352</v>
+        <v>1.487258387930588</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.66388104484817</v>
@@ -21013,7 +20785,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.487006533710676</v>
+        <v>1.492562599398505</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.593922058816808</v>
@@ -21102,7 +20874,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.493593413021311</v>
+        <v>1.498848180190268</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.467637831426782</v>
@@ -21191,7 +20963,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.511160728454931</v>
+        <v>1.505333938294632</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.404337964881512</v>
@@ -21280,7 +21052,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.517955523268306</v>
+        <v>1.521084469031283</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.77346579041392</v>
@@ -21369,7 +21141,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.504640335907152</v>
+        <v>1.512959293576533</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.688343241255923</v>
@@ -21458,7 +21230,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.503507575184348</v>
+        <v>1.516976030858941</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.69521342443242</v>
@@ -21547,7 +21319,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.504024725829373</v>
+        <v>1.518419869297397</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.494618727398847</v>
@@ -21636,7 +21408,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.529381781291699</v>
+        <v>1.543719684515059</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.592030022596823</v>
@@ -21725,7 +21497,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.543979604618478</v>
+        <v>1.555322134130922</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.566656728545809</v>
@@ -21814,7 +21586,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.572188339185473</v>
+        <v>1.57923330032699</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.544568308253693</v>
@@ -21903,7 +21675,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.559427379430206</v>
+        <v>1.566756683745789</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.608198550983476</v>
@@ -21992,7 +21764,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553467766143671</v>
+        <v>1.562973582007511</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.585134883838534</v>
@@ -22081,7 +21853,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.561070468134198</v>
+        <v>1.565384709626167</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.712671677344765</v>
@@ -22170,7 +21942,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.545118788791982</v>
+        <v>1.552704921831102</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.648317133868742</v>
@@ -22259,7 +22031,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.550112410209266</v>
+        <v>1.566740351019408</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.713098360800134</v>
@@ -22348,7 +22120,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.510527575300926</v>
+        <v>1.531586222228579</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.555888676383224</v>
@@ -22437,7 +22209,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.488112592913623</v>
+        <v>1.50860942688211</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.56080785782679</v>
@@ -22526,7 +22298,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.50318193170293</v>
+        <v>1.524477655680967</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.241576579578922</v>
@@ -22615,7 +22387,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.501594779761293</v>
+        <v>1.52164191471852</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.560071111674346</v>
@@ -22704,7 +22476,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.533070855856431</v>
+        <v>1.550629230871762</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.511712450972059</v>
@@ -22793,7 +22565,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.52421882823092</v>
+        <v>1.540784256965289</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.490455601808401</v>
@@ -22882,7 +22654,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.501863969513468</v>
+        <v>1.519403709629948</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.524473739111231</v>
@@ -22971,7 +22743,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.485069540830147</v>
+        <v>1.501126475161108</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.42651443694839</v>
@@ -23060,7 +22832,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.482990270392116</v>
+        <v>1.448566328260809</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.448451186036978</v>
@@ -23149,7 +22921,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.273504182778468</v>
+        <v>1.263884214921342</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.478569980601608</v>
@@ -23238,7 +23010,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.268954393437663</v>
+        <v>1.259605685323619</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.47843337066055</v>
@@ -23327,7 +23099,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.266875418758963</v>
+        <v>1.258329006393372</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.476551999106405</v>
@@ -23416,7 +23188,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.264898954223797</v>
+        <v>1.256156799402968</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.474102412784006</v>
@@ -23505,7 +23277,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.269985672337432</v>
+        <v>1.258755786678452</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.469128575641405</v>
@@ -23594,7 +23366,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.267935141956666</v>
+        <v>1.254702429207267</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.470511453580087</v>
@@ -23683,7 +23455,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.280944386819498</v>
+        <v>1.265776835118418</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.468282281375386</v>
@@ -23772,7 +23544,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.289238716528303</v>
+        <v>1.275307977848252</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.461486870080758</v>
@@ -23861,7 +23633,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.285774958137012</v>
+        <v>1.273158454976656</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.466502486608273</v>
@@ -23950,7 +23722,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.286335439278585</v>
+        <v>1.273970036643236</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.464715573360949</v>
@@ -24039,7 +23811,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.286327040945811</v>
+        <v>1.273670282717619</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.467551007219427</v>
@@ -24128,7 +23900,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.291960277804463</v>
+        <v>1.278864344063501</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.467015003586859</v>
@@ -24217,7 +23989,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.290297986011032</v>
+        <v>1.27706086985996</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.464209675148668</v>
@@ -24306,7 +24078,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.301135026578542</v>
+        <v>1.28778977878348</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.445991375955907</v>
@@ -24395,7 +24167,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.399512977616718</v>
+        <v>1.389926518512058</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.312503730443338</v>
@@ -24681,7 +24453,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.481136391204622</v>
+        <v>1.514642110806088</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.659086445520574</v>
@@ -24770,7 +24542,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.490505710344116</v>
+        <v>1.521127988629288</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.591045236972725</v>
@@ -24859,7 +24631,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.492151877345893</v>
+        <v>1.524522544591455</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.614918275626209</v>
@@ -24948,7 +24720,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.46702952658067</v>
+        <v>1.499013807526297</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.618795899777865</v>
@@ -25037,7 +24809,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.479801669168721</v>
+        <v>1.512063079046467</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.613592359752901</v>
@@ -25126,7 +24898,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.499186293613064</v>
+        <v>1.524427891225398</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.489078250869225</v>
@@ -25215,7 +24987,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.504208990622996</v>
+        <v>1.530692469566532</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.5525688616253</v>
@@ -25304,7 +25076,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.502491665741125</v>
+        <v>1.528441677537413</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.506295130026956</v>
@@ -25393,7 +25165,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.487785334022091</v>
+        <v>1.513834346113775</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.46143961871681</v>
@@ -25482,7 +25254,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.488065406969397</v>
+        <v>1.515279044544893</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.479918230368047</v>
@@ -25571,7 +25343,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.481647324518359</v>
+        <v>1.508892450164377</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.513539204131819</v>
@@ -25660,7 +25432,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.474607453301062</v>
+        <v>1.503409322213562</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.601123580784571</v>
@@ -25749,7 +25521,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.471927847612355</v>
+        <v>1.496523325958815</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.381272136998986</v>
@@ -25838,7 +25610,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.469591409814151</v>
+        <v>1.4978868269159</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.349825131794424</v>
@@ -25927,7 +25699,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493747576212645</v>
+        <v>1.520726224717733</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.60065478184175</v>
@@ -26016,7 +25788,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.474253936537545</v>
+        <v>1.483298097943136</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.33254003282509</v>
@@ -26105,7 +25877,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.4407279760013</v>
+        <v>1.460610039152072</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.328215115230293</v>
@@ -26194,7 +25966,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.454943047408597</v>
+        <v>1.470325330728084</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.194344596531852</v>
@@ -26283,7 +26055,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.466106759524096</v>
+        <v>1.482143032217005</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.284590742805594</v>
@@ -26372,7 +26144,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.45881716373039</v>
+        <v>1.474423079093007</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.27838549302164</v>
@@ -26461,7 +26233,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.467745661432488</v>
+        <v>1.486538247047527</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.363391530476772</v>
@@ -26550,7 +26322,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.461565858887859</v>
+        <v>1.471884509763184</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.271233008506073</v>
@@ -26639,7 +26411,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.435246429849251</v>
+        <v>1.452306150752467</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.379222815746998</v>
@@ -26728,7 +26500,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.444300861044806</v>
+        <v>1.45042457620383</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.231977532623493</v>
@@ -26817,7 +26589,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.430235595587152</v>
+        <v>1.45099478802924</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.350051009163457</v>
@@ -26906,7 +26678,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.433662797630138</v>
+        <v>1.454587433111021</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.331278114884024</v>
@@ -26995,7 +26767,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.431917148591513</v>
+        <v>1.453961069272005</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.391409483759873</v>
@@ -27084,7 +26856,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.453199594057478</v>
+        <v>1.471863610161905</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.112206424114887</v>
@@ -27173,7 +26945,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.453229635878798</v>
+        <v>1.466406215056629</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.259428344911382</v>
@@ -27262,7 +27034,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.438087041648518</v>
+        <v>1.457782395244376</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.321998415537279</v>
@@ -27351,7 +27123,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.444328807152211</v>
+        <v>1.472623892977713</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.095498879146618</v>
@@ -27440,7 +27212,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.440258802829494</v>
+        <v>1.469608140452454</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.439835607421429</v>
@@ -27529,7 +27301,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.439501098640208</v>
+        <v>1.466930246226509</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.283683480887448</v>
@@ -27618,7 +27390,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.428026021974308</v>
+        <v>1.456610591647923</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.428054217653024</v>
@@ -27707,7 +27479,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.400975069935547</v>
+        <v>1.424502947788259</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.362214210046429</v>
@@ -27796,7 +27568,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.378214272326397</v>
+        <v>1.404422765448808</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.400889473225446</v>
@@ -27885,7 +27657,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.361754356163828</v>
+        <v>1.391022038960433</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.15803168224878</v>
@@ -27974,7 +27746,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.371313896674455</v>
+        <v>1.395529643112106</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.368356254677135</v>
@@ -28063,7 +27835,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.387491840267959</v>
+        <v>1.415467296770576</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.117747750088659</v>
@@ -28152,7 +27924,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.360442692031503</v>
+        <v>1.388096883856001</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.415409927605087</v>
@@ -28241,7 +28013,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.349690725497061</v>
+        <v>1.37656243742942</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.347435778172969</v>
@@ -28330,7 +28102,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.353224201038638</v>
+        <v>1.380058126156447</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.390692460343032</v>
@@ -28419,7 +28191,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.347198350087602</v>
+        <v>1.375144198923693</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.422051307554453</v>
@@ -28508,7 +28280,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.354224891655199</v>
+        <v>1.381113472391635</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.230746925327403</v>
@@ -28597,7 +28369,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.37616545209673</v>
+        <v>1.40240659496385</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.217289620714195</v>
@@ -28686,7 +28458,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.372473899685154</v>
+        <v>1.399594979944822</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.391867482705174</v>
@@ -28775,7 +28547,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.357910889174131</v>
+        <v>1.385842806021845</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.316004003304279</v>
@@ -28864,7 +28636,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.362608215394341</v>
+        <v>1.393091887444414</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.383031123991572</v>
@@ -28953,7 +28725,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.371402244524827</v>
+        <v>1.398863029034651</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.212474536836855</v>
@@ -29042,7 +28814,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.393665731432478</v>
+        <v>1.422091117681081</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.206246020499803</v>
@@ -29131,7 +28903,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.402362472356983</v>
+        <v>1.432198147265387</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.394354610779136</v>
@@ -29220,7 +28992,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.398257898120761</v>
+        <v>1.423957214813704</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.33825897072514</v>
@@ -29309,7 +29081,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.394951838093923</v>
+        <v>1.423170530355188</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.279151548753998</v>
@@ -29398,7 +29170,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.393337263468765</v>
+        <v>1.416388197186339</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.254312347334697</v>
@@ -29487,7 +29259,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.431621221359021</v>
+        <v>1.455274006591117</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.341156210979122</v>
@@ -29576,7 +29348,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.444395597510401</v>
+        <v>1.465852275365169</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.305957770157299</v>
@@ -29665,7 +29437,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.427353480748577</v>
+        <v>1.450310246757432</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.403261583985274</v>
@@ -29754,7 +29526,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.423265654364925</v>
+        <v>1.447466699147463</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.434214718577375</v>
@@ -29843,7 +29615,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.41115813040963</v>
+        <v>1.436016466397144</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.419766437176874</v>
@@ -29932,7 +29704,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.401573517617335</v>
+        <v>1.424383915186457</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.388444655003427</v>
@@ -30021,7 +29793,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.420429970026158</v>
+        <v>1.440569411575173</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.394502815928087</v>
@@ -30110,7 +29882,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.437974330556977</v>
+        <v>1.457498245293576</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.453063923940544</v>
@@ -30199,7 +29971,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.41827448498488</v>
+        <v>1.434824474580295</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.492241027408364</v>
@@ -30288,7 +30060,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.405892545928089</v>
+        <v>1.4208098672327</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.43163886812707</v>
@@ -30377,7 +30149,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.41019487864143</v>
+        <v>1.425533105730597</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.345801649258508</v>
@@ -30466,7 +30238,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.422831087147955</v>
+        <v>1.431793478159657</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.177641637248653</v>
@@ -30555,7 +30327,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.404999014713797</v>
+        <v>1.418394848422094</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.274125894546405</v>
@@ -30644,7 +30416,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.407250726362052</v>
+        <v>1.4200190942918</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.303592819441955</v>
@@ -30733,7 +30505,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.40140492115399</v>
+        <v>1.417395915402239</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.198695034202585</v>
@@ -30822,7 +30594,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.393905219596282</v>
+        <v>1.408663086487504</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.173083131873765</v>
@@ -30911,7 +30683,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.396593691649615</v>
+        <v>1.404491815259379</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.010137494893342</v>
@@ -31000,7 +30772,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.402776219764099</v>
+        <v>1.409377428829013</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.159984105954423</v>
@@ -31089,7 +30861,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.396357597288356</v>
+        <v>1.403873869647924</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.159485473998591</v>
@@ -31178,7 +30950,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.412104100295644</v>
+        <v>1.42188529131425</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.273275256200706</v>
@@ -31267,7 +31039,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.397688050517557</v>
+        <v>1.408176489023409</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.222449157581013</v>
@@ -31356,7 +31128,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.402666307211433</v>
+        <v>1.413665881351561</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.283508139484381</v>
@@ -31445,7 +31217,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.405972017094973</v>
+        <v>1.419633919074605</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.179603917315724</v>
@@ -31534,7 +31306,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.424996423736139</v>
+        <v>1.436294657494417</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.162704983509583</v>
@@ -31623,7 +31395,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.411597206390585</v>
+        <v>1.421150364144814</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.254923118868283</v>
@@ -31712,7 +31484,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.405223243085627</v>
+        <v>1.416095291505703</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.237629104083944</v>
@@ -31801,7 +31573,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.44735307195916</v>
+        <v>1.463689126555604</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.919115712805031</v>
@@ -32087,7 +31859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.273577271775316</v>
+        <v>1.290132540578513</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.619278320362866</v>
@@ -32176,7 +31948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.259888753459024</v>
+        <v>1.274824153974872</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.616055408695374</v>
@@ -32265,7 +32037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.198373257897432</v>
+        <v>1.204883794320539</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.681413262582368</v>
@@ -32354,7 +32126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.182452640613401</v>
+        <v>1.189923446412771</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.687041332169919</v>
@@ -32443,7 +32215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.179299110121818</v>
+        <v>1.188120293410118</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.695882795747888</v>
@@ -32532,7 +32304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.222637633189847</v>
+        <v>1.23878507242155</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.619799552338523</v>
@@ -32621,7 +32393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.244569993223029</v>
+        <v>1.263392302102972</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.578669970505825</v>
@@ -32710,7 +32482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.235180654559318</v>
+        <v>1.251300954003409</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.599744277160089</v>
@@ -32799,7 +32571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.1911457027409</v>
+        <v>1.199226151351077</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.65271330586351</v>
@@ -32888,7 +32660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.182271132306583</v>
+        <v>1.191057776809811</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.673585573405909</v>
@@ -32977,7 +32749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.192270773592872</v>
+        <v>1.20118891951009</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.647344372517425</v>
@@ -33066,7 +32838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.192983088471687</v>
+        <v>1.199643185996135</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.604287050653975</v>
@@ -33155,7 +32927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.194816547516766</v>
+        <v>1.200700299530422</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.654966553977886</v>
@@ -33244,7 +33016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.191086379365057</v>
+        <v>1.199348137010582</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.666516779168582</v>
@@ -33333,7 +33105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.192246314114253</v>
+        <v>1.199987604983254</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.677096315938208</v>
@@ -33422,7 +33194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.153517252120174</v>
+        <v>1.154787844418582</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.712601556921636</v>
@@ -33511,7 +33283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.148239944848932</v>
+        <v>1.148615512769281</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.73285026332956</v>
@@ -33600,7 +33372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.181246429611516</v>
+        <v>1.185801980149756</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.651095702575679</v>
@@ -33689,7 +33461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.19058898690997</v>
+        <v>1.197063818418455</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.63898636944289</v>
@@ -33778,7 +33550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.190600505118565</v>
+        <v>1.196675089633177</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.647791587296118</v>
@@ -33867,7 +33639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.187933899484956</v>
+        <v>1.193966347858661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.650244193062933</v>
@@ -33956,7 +33728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.18285670981283</v>
+        <v>1.184663727954696</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.669306576470222</v>
@@ -34045,7 +33817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.156109109498846</v>
+        <v>1.153660884031841</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.708151897132096</v>
@@ -34134,7 +33906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.181870167870491</v>
+        <v>1.187479117474947</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.653739332432185</v>
@@ -34223,7 +33995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.187135630658078</v>
+        <v>1.19028284891216</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.664056585967842</v>
@@ -34312,7 +34084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.183456541677862</v>
+        <v>1.187183446731545</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.668002182771771</v>
@@ -34401,7 +34173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.184216346203831</v>
+        <v>1.188853719127228</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.651414110951832</v>
@@ -34490,7 +34262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.191242359627182</v>
+        <v>1.193457552047781</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.631081280645772</v>
@@ -34579,7 +34351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.177346169246382</v>
+        <v>1.163696630866571</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.679739979451804</v>
@@ -34668,7 +34440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.151499234816649</v>
+        <v>1.149663073645609</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.60864244786236</v>
@@ -34757,7 +34529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.185712623918612</v>
+        <v>1.190221839032443</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.581649591398222</v>
@@ -34846,7 +34618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.188945786713964</v>
+        <v>1.19505236972525</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.621228230525188</v>
@@ -34935,7 +34707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.183939292018092</v>
+        <v>1.188431462253914</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.627353100132031</v>
@@ -35024,7 +34796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.179979064038323</v>
+        <v>1.178217452721209</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.65236866255692</v>
@@ -35113,7 +34885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.14462386131073</v>
+        <v>1.139324718671874</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.702013829247049</v>
@@ -35202,7 +34974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.139644762194321</v>
+        <v>1.134691363205052</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.691856636776992</v>
@@ -35291,7 +35063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.132995390048013</v>
+        <v>1.121899657175055</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.731021973768319</v>
@@ -35380,7 +35152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.134884814912596</v>
+        <v>1.130470799542169</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.723595189208586</v>
@@ -35469,7 +35241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.128292297146717</v>
+        <v>1.123204380309286</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.697322399887527</v>
@@ -35558,7 +35330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.11112006311194</v>
+        <v>1.10312323740428</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.761077203687334</v>
@@ -35647,7 +35419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.106115962141827</v>
+        <v>1.098698808738503</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.747884665719063</v>
@@ -35736,7 +35508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.107283239813468</v>
+        <v>1.100664906663743</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.748757219939835</v>
@@ -35825,7 +35597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.105857447436236</v>
+        <v>1.097087096927881</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.708569439595306</v>
@@ -35914,7 +35686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.118169973214174</v>
+        <v>1.112872731374649</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.567504102450648</v>
@@ -36003,7 +35775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.129847354121829</v>
+        <v>1.126218129104177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.695952406342273</v>
@@ -36092,7 +35864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.131493906720107</v>
+        <v>1.126831301399116</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.697565253399411</v>
@@ -36181,7 +35953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.11337544881727</v>
+        <v>1.105399978250996</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.746391078186115</v>
@@ -36270,7 +36042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.110356011371866</v>
+        <v>1.104587704159298</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.740530644699336</v>
@@ -36359,7 +36131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.125750958393959</v>
+        <v>1.117850540429166</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.669390299002053</v>
@@ -36448,7 +36220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.135664676267091</v>
+        <v>1.135742225606206</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.718955953901653</v>
@@ -36537,7 +36309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.145959510942501</v>
+        <v>1.145115100813035</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.693536178431041</v>
@@ -36626,7 +36398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.175625703828375</v>
+        <v>1.180120395552123</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.618745821245579</v>
@@ -36715,7 +36487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.157556874441969</v>
+        <v>1.154397684202555</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.728960318874995</v>
@@ -36804,7 +36576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.155949626891023</v>
+        <v>1.152659393248963</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.648998003221408</v>
@@ -36893,7 +36665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.178963123026918</v>
+        <v>1.181575760606939</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.611572100072989</v>
@@ -36982,7 +36754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.190960510802381</v>
+        <v>1.193905855659718</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.620430837891778</v>
@@ -37071,7 +36843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.183458306087407</v>
+        <v>1.186062344286861</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.651402276990205</v>
@@ -37160,7 +36932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.184368153946272</v>
+        <v>1.185199540696193</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.656250030112703</v>
@@ -37249,7 +37021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.145110600333708</v>
+        <v>1.141082536495446</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.693679736354073</v>
@@ -37338,7 +37110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.140141446615614</v>
+        <v>1.137018787164188</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.690887902907234</v>
@@ -37427,7 +37199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.13636824544018</v>
+        <v>1.131688281475213</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.619920585083605</v>
@@ -37516,7 +37288,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.16076339417339</v>
+        <v>1.162427194475826</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.610846225270324</v>
@@ -37605,7 +37377,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.157505133280731</v>
+        <v>1.158796276893098</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.646092930869586</v>
@@ -37694,7 +37466,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.141979942390977</v>
+        <v>1.134627544012402</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.706993624562727</v>
@@ -37783,7 +37555,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.121634894877058</v>
+        <v>1.118197702248226</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.707895507611927</v>
@@ -37872,7 +37644,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.130350540080514</v>
+        <v>1.126728766073411</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.718256139645266</v>
@@ -37961,7 +37733,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.128743333376297</v>
+        <v>1.124900679543483</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.767605580543167</v>
@@ -38050,7 +37822,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.149826811939382</v>
+        <v>1.15221250413694</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.673262921536245</v>
@@ -38139,7 +37911,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.155547053115977</v>
+        <v>1.158481666151162</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.674220765655429</v>
@@ -38228,7 +38000,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.155551028669051</v>
+        <v>1.158341153462835</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.679726151198831</v>
@@ -38317,7 +38089,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.155019611405891</v>
+        <v>1.156826886324539</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.676523903470164</v>
@@ -38406,7 +38178,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.162917838695904</v>
+        <v>1.16340174327046</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.680448875057115</v>
@@ -38495,7 +38267,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.16889734104739</v>
+        <v>1.169433973874582</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.702954396929366</v>
@@ -38584,7 +38356,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.207880102710368</v>
+        <v>1.212707649852729</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.668886619467357</v>
@@ -38673,7 +38445,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.158839856733447</v>
+        <v>1.163553097034657</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.69148441515145</v>
@@ -38762,7 +38534,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.167365322067669</v>
+        <v>1.174014844213015</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.690943553248535</v>
@@ -38851,7 +38623,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.161623416597587</v>
+        <v>1.166544181042091</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.708736219344518</v>
@@ -38940,7 +38712,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.163560419486591</v>
+        <v>1.166244006025103</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.707611186734848</v>
@@ -39029,7 +38801,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.165010676484294</v>
+        <v>1.166611723378428</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.663379556332863</v>
@@ -39118,7 +38890,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.166857887838766</v>
+        <v>1.169145571665741</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.667295976169826</v>
@@ -39207,7 +38979,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.174624326686891</v>
+        <v>1.171249380586853</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.690311572134171</v>
@@ -39493,7 +39265,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.699829899554616</v>
+        <v>1.724913046664317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.944403203779749</v>
@@ -39582,7 +39354,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.684255842175564</v>
+        <v>1.707900830089604</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.806849782637014</v>
@@ -39671,7 +39443,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.643861225882676</v>
+        <v>1.672207949355769</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.867526005087435</v>
@@ -39760,7 +39532,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.650620559108837</v>
+        <v>1.676393717935098</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.859601522988624</v>
@@ -39849,7 +39621,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.65826060619596</v>
+        <v>1.682225996244888</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.874556294042902</v>
@@ -39938,7 +39710,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.67848772831703</v>
+        <v>1.694390567487492</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.615163116492443</v>
@@ -40027,7 +39799,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.67513727215992</v>
+        <v>1.68718626232795</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.575026663029033</v>
@@ -40116,7 +39888,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.671453322774375</v>
+        <v>1.685903500422268</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.70975037573845</v>
@@ -40205,7 +39977,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647647496998952</v>
+        <v>1.668354541009483</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.583141745952695</v>
@@ -40294,7 +40066,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643096405257167</v>
+        <v>1.666973787064063</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.873500785098718</v>
@@ -40383,7 +40155,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.644537561132401</v>
+        <v>1.667293312933809</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.87501102368591</v>
@@ -40472,7 +40244,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.643976817002326</v>
+        <v>1.665953335924546</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.579220483602151</v>
@@ -40561,7 +40333,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.649975225416918</v>
+        <v>1.67169556054548</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.878028685006616</v>
@@ -40650,7 +40422,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65895621408914</v>
+        <v>1.678985908049865</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.831218963158747</v>
@@ -40739,7 +40511,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.66473392522099</v>
+        <v>1.686166130353273</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.810976826911654</v>
@@ -40828,7 +40600,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.646414437024419</v>
+        <v>1.670845186134905</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.769825137102802</v>
@@ -40917,7 +40689,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.659137351624845</v>
+        <v>1.680457530603122</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.738072332899369</v>
@@ -41006,7 +40778,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.702676375448813</v>
+        <v>1.719688395060702</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.807569008219493</v>
@@ -41095,7 +40867,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.699751397473935</v>
+        <v>1.715646025823781</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.882539765043773</v>
@@ -41184,7 +40956,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.701071516460864</v>
+        <v>1.716214095148881</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.710179239397026</v>
@@ -41273,7 +41045,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.703074436727319</v>
+        <v>1.720725294913737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.865745202896739</v>
@@ -41362,7 +41134,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.695687524925646</v>
+        <v>1.711922850334518</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.868882287053994</v>
@@ -41451,7 +41223,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.66591455438829</v>
+        <v>1.686115809432949</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.686192312087011</v>
@@ -41540,7 +41312,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.694748629664139</v>
+        <v>1.709402566279664</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.552717128661092</v>
@@ -41629,7 +41401,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.683192558968802</v>
+        <v>1.697192471379552</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.803680702869249</v>
@@ -41718,7 +41490,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.67189012696015</v>
+        <v>1.689328859490935</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.805120198410969</v>
@@ -41807,7 +41579,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.654670428345174</v>
+        <v>1.677396012378042</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.740380008574296</v>
@@ -41896,7 +41668,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.651776560492365</v>
+        <v>1.676733040535322</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.577706875223043</v>
@@ -41985,7 +41757,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.636417212832111</v>
+        <v>1.666066921076437</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.85925552653486</v>
@@ -42074,7 +41846,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612688237452161</v>
+        <v>1.647380032473833</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.579227148131079</v>
@@ -42163,7 +41935,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.628557143357446</v>
+        <v>1.654220020073926</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.592147058794499</v>
@@ -42252,7 +42024,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.635252065972302</v>
+        <v>1.660779634046869</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.794059423134669</v>
@@ -42341,7 +42113,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.628929078207075</v>
+        <v>1.65317581548197</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.705971134419753</v>
@@ -42430,7 +42202,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.623333043188068</v>
+        <v>1.650086518021797</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.83011036562213</v>
@@ -42519,7 +42291,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.586406647093511</v>
+        <v>1.618003150182574</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.659540033136969</v>
@@ -42608,7 +42380,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.573657614262</v>
+        <v>1.604775067860033</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.691865411660059</v>
@@ -42697,7 +42469,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.55436194848077</v>
+        <v>1.586254860001918</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.661556829640527</v>
@@ -42786,7 +42558,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568632395500434</v>
+        <v>1.601024154078727</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.635504492902892</v>
@@ -42875,7 +42647,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.573135470319827</v>
+        <v>1.608199394359314</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.600687125699999</v>
@@ -42964,7 +42736,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.553496288486965</v>
+        <v>1.591284540285079</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.789914540979587</v>
@@ -43053,7 +42825,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.560649362852162</v>
+        <v>1.595950341836804</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.775943117392324</v>
@@ -43142,7 +42914,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.567875005127195</v>
+        <v>1.598353254802243</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.612002479799018</v>
@@ -43231,7 +43003,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.563787949916884</v>
+        <v>1.594457882651527</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.551234275868043</v>
@@ -43320,7 +43092,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582759613279512</v>
+        <v>1.605850083357813</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.338014775094287</v>
@@ -43409,7 +43181,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586085407356742</v>
+        <v>1.611894830164306</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.664875828244794</v>
@@ -43498,7 +43270,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604908177757067</v>
+        <v>1.631828600429794</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.647963088403513</v>
@@ -43587,7 +43359,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.576948671443812</v>
+        <v>1.60672308846789</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.790605120931162</v>
@@ -43676,7 +43448,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571809644316795</v>
+        <v>1.602046489694881</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.707195303554972</v>
@@ -43765,7 +43537,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585400865307881</v>
+        <v>1.608564398170386</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.504030701922019</v>
@@ -43854,7 +43626,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617840506364746</v>
+        <v>1.637958233185298</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.747015105663212</v>
@@ -43943,7 +43715,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.628888421124761</v>
+        <v>1.648201121765407</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.725671931034995</v>
@@ -44032,7 +43804,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.673199584483516</v>
+        <v>1.687950122606282</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.583675609206193</v>
@@ -44121,7 +43893,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.640316553277009</v>
+        <v>1.657586171112612</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.788039793917797</v>
@@ -44210,7 +43982,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.632217735964789</v>
+        <v>1.646733219619365</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.693722424445674</v>
@@ -44299,7 +44071,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.669636970334978</v>
+        <v>1.676934294485056</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.673027858121995</v>
@@ -44388,7 +44160,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.66726880167049</v>
+        <v>1.677195645022673</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.746128923370125</v>
@@ -44477,7 +44249,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.664674321451731</v>
+        <v>1.676155716869572</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.823029874096711</v>
@@ -44566,7 +44338,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.666757128629361</v>
+        <v>1.675548695937825</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.730608771479175</v>
@@ -44655,7 +44427,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.623230088650355</v>
+        <v>1.643463492716549</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.793233101836968</v>
@@ -44744,7 +44516,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.634780422322764</v>
+        <v>1.654992575513076</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.676762601940023</v>
@@ -44833,7 +44605,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.623814421410043</v>
+        <v>1.642183468215885</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.609424516798727</v>
@@ -44922,7 +44694,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.656347567524331</v>
+        <v>1.67152830767833</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.575698912371446</v>
@@ -45011,7 +44783,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.634788699066419</v>
+        <v>1.654226905506182</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.760791794115203</v>
@@ -45100,7 +44872,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.614268487912995</v>
+        <v>1.636742056997173</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.762997543346133</v>
@@ -45189,7 +44961,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.587496878027252</v>
+        <v>1.61782160673612</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.708676857796876</v>
@@ -45278,7 +45050,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.589962526157073</v>
+        <v>1.609546469284647</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.201838171010575</v>
@@ -45367,7 +45139,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.515853496335066</v>
+        <v>1.541728436456025</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.120043944688625</v>
@@ -45456,7 +45228,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.542049834975999</v>
+        <v>1.56487147198045</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.174301649516473</v>
@@ -45545,7 +45317,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.54335604758082</v>
+        <v>1.56800304741299</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.129987896781949</v>
@@ -45634,7 +45406,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.5437707152974</v>
+        <v>1.567450534307211</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.140006982130684</v>
@@ -45723,7 +45495,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.544270563907805</v>
+        <v>1.564919130393048</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.130504547818199</v>
@@ -45812,7 +45584,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.545965435945502</v>
+        <v>1.565708082227154</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.144704184827669</v>
@@ -45901,7 +45673,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.55124186513506</v>
+        <v>1.562102705549017</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.12369219193181</v>
@@ -45990,7 +45762,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.575763008170025</v>
+        <v>1.584223536484843</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.085900886481514</v>
@@ -46079,7 +45851,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.547815676510656</v>
+        <v>1.561567498979436</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.055299104927906</v>
@@ -46168,7 +45940,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.553792423057611</v>
+        <v>1.566561652652437</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.110419281732006</v>
@@ -46257,7 +46029,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.552376661778462</v>
+        <v>1.563887249471784</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.077927076766993</v>
@@ -46346,7 +46118,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.570536129411264</v>
+        <v>1.579611892829499</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.1083203438683</v>
@@ -46435,7 +46207,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.576270309497517</v>
+        <v>1.583490472828539</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.240119939767514</v>
@@ -46524,7 +46296,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.588575836785272</v>
+        <v>1.592286730271838</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.008001026939938</v>
@@ -46613,7 +46385,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.634014634652794</v>
+        <v>1.63744416468195</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.863468675308974</v>
@@ -46899,7 +46671,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.535458521429625</v>
+        <v>1.562803046274925</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.356934154810391</v>
@@ -46988,7 +46760,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.534358668098259</v>
+        <v>1.559649081165927</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.220770588173693</v>
@@ -47077,7 +46849,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.546037444218318</v>
+        <v>1.569301782016776</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.354261220975883</v>
@@ -47166,7 +46938,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.533064176688996</v>
+        <v>1.553007614078127</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.367348140081791</v>
@@ -47255,7 +47027,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.567051699952658</v>
+        <v>1.586071416343503</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.198447996063742</v>
@@ -47344,7 +47116,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.56159082587022</v>
+        <v>1.575397807693587</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.333364696901355</v>
@@ -47433,7 +47205,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.536012436128695</v>
+        <v>1.551404085102697</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.195513302086526</v>
@@ -47522,7 +47294,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.554409825123449</v>
+        <v>1.570320258039446</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.207571203182206</v>
@@ -47611,7 +47383,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.539250130229746</v>
+        <v>1.558287142584063</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.284670058400339</v>
@@ -47700,7 +47472,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.508277564457782</v>
+        <v>1.52673020536129</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.26252696219339</v>
@@ -47789,7 +47561,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.506803948132312</v>
+        <v>1.526530024001614</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.273545980167908</v>
@@ -47878,7 +47650,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503212108217164</v>
+        <v>1.520703912258183</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.286697899791592</v>
@@ -47967,7 +47739,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.540678494704121</v>
+        <v>1.556533505099602</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.212953800172679</v>
@@ -48056,7 +47828,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544565607182782</v>
+        <v>1.562351078962625</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.310169619287248</v>
@@ -48145,7 +47917,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55337342818146</v>
+        <v>1.572709860668259</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.326282690638745</v>
@@ -48234,7 +48006,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548647092303066</v>
+        <v>1.570725306403044</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.359597887360096</v>
@@ -48323,7 +48095,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.581943448852656</v>
+        <v>1.601546308474056</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.453877510059539</v>
@@ -48412,7 +48184,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604656390206689</v>
+        <v>1.620969138687172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.472589167411352</v>
@@ -48501,7 +48273,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.612539720838537</v>
+        <v>1.630273076120077</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.529861800479457</v>
@@ -48590,7 +48362,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618410734659977</v>
+        <v>1.635473947396053</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.521993402507805</v>
@@ -48679,7 +48451,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.650678082154667</v>
+        <v>1.662029986154216</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.548068097050915</v>
@@ -48768,7 +48540,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.654156683341407</v>
+        <v>1.661197875060927</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.523259274340284</v>
@@ -48857,7 +48629,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634530831600726</v>
+        <v>1.643811246221798</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.594569918340365</v>
@@ -48946,7 +48718,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.613994752535678</v>
+        <v>1.626923019679461</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.32143719033547</v>
@@ -49035,7 +48807,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.647451424296818</v>
+        <v>1.650735485500467</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.356633529360373</v>
@@ -49124,7 +48896,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.646094138229912</v>
+        <v>1.645460511671835</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.439728618758531</v>
@@ -49213,7 +48985,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.609059053146281</v>
+        <v>1.615169386775231</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.372899538727254</v>
@@ -49302,7 +49074,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.614821242125927</v>
+        <v>1.617810880699415</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.380128853298215</v>
@@ -49391,7 +49163,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.60565994629211</v>
+        <v>1.611903172110509</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.473599106729149</v>
@@ -49480,7 +49252,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594209515179577</v>
+        <v>1.603479660375727</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.461309508457898</v>
@@ -49569,7 +49341,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.591737585170597</v>
+        <v>1.594140363231989</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.504149403697712</v>
@@ -49658,7 +49430,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557560301080487</v>
+        <v>1.564965709721314</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.285232150159326</v>
@@ -49747,7 +49519,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546200078159286</v>
+        <v>1.554359722500713</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.278560763636841</v>
@@ -49836,7 +49608,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.550166813006567</v>
+        <v>1.558079357939965</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.381550450793435</v>
@@ -49925,7 +49697,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.531772550924458</v>
+        <v>1.537869928229529</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.310382206155261</v>
@@ -50014,7 +49786,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.526614008061286</v>
+        <v>1.533723271991563</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.270787643205575</v>
@@ -50103,7 +49875,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.515147128327937</v>
+        <v>1.526604453282665</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.251637988321507</v>
@@ -50192,7 +49964,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.523762384658682</v>
+        <v>1.533548735394991</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.247924299573592</v>
@@ -50281,7 +50053,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530315171836206</v>
+        <v>1.537210244441624</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.28584839213107</v>
@@ -50370,7 +50142,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.522932545513773</v>
+        <v>1.537012234219852</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.332530564297497</v>
@@ -50459,7 +50231,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.523242141958641</v>
+        <v>1.538432433667891</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.389873403801377</v>
@@ -50548,7 +50320,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549258604632893</v>
+        <v>1.563564146804013</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.33273443089394</v>
@@ -50637,7 +50409,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535508373462839</v>
+        <v>1.555322694447379</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.324963988064499</v>
@@ -50726,7 +50498,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552168361187017</v>
+        <v>1.564588667805572</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.448196660476585</v>
@@ -50815,7 +50587,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.575081912106136</v>
+        <v>1.577332572360199</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.393457578921961</v>
@@ -50904,7 +50676,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.552723818316421</v>
+        <v>1.565524234255293</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.216012651109088</v>
@@ -50993,7 +50765,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569024350722171</v>
+        <v>1.582553604602316</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.284014577185323</v>
@@ -51082,7 +50854,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.557311888855333</v>
+        <v>1.57134442456503</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.358141015957001</v>
@@ -51171,7 +50943,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.557366410362573</v>
+        <v>1.566779870545451</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.196731469960087</v>
@@ -51260,7 +51032,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.578995569722041</v>
+        <v>1.594477773334338</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.278934306445591</v>
@@ -51349,7 +51121,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.581288603971608</v>
+        <v>1.591008413011759</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.308247530820674</v>
@@ -51438,7 +51210,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.604348631384075</v>
+        <v>1.607375428435637</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.50050848667259</v>
@@ -51527,7 +51299,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.594247567521999</v>
+        <v>1.597610866516536</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.237109806582056</v>
@@ -51616,7 +51388,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.622271756144653</v>
+        <v>1.622326477544259</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.188443560921534</v>
@@ -51705,7 +51477,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.609937636031832</v>
+        <v>1.609861122327458</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.286991599391804</v>
@@ -51794,7 +51566,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.608934413922925</v>
+        <v>1.611513976913687</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.300785772185741</v>
@@ -51883,7 +51655,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.603130533644611</v>
+        <v>1.608622695570959</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.340858736507807</v>
@@ -51972,7 +51744,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.554006541450525</v>
+        <v>1.564461652550467</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.241163541789982</v>
@@ -52061,7 +51833,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.534045016967573</v>
+        <v>1.546600895339798</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.32951278775122</v>
@@ -52150,7 +51922,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.554505944640735</v>
+        <v>1.561865503058441</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.137812715907613</v>
@@ -52239,7 +52011,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.562355575920493</v>
+        <v>1.567908527559193</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.358715482356012</v>
@@ -52328,7 +52100,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.578626201282659</v>
+        <v>1.582053447683848</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.267170770220207</v>
@@ -52417,7 +52189,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.570198861364764</v>
+        <v>1.576651487722747</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.206478829134052</v>
@@ -52506,7 +52278,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.560770592152297</v>
+        <v>1.567239364966871</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.265933616563189</v>
@@ -52595,7 +52367,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.510418993924135</v>
+        <v>1.518072068101636</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.183173236721417</v>
@@ -52684,7 +52456,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.525682326610017</v>
+        <v>1.520826329810594</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.117105440518423</v>
@@ -52773,7 +52545,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.45254021012494</v>
+        <v>1.464677359635017</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.114182453942743</v>
@@ -52862,7 +52634,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.455636810582859</v>
+        <v>1.467363340175796</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.12102336566735</v>
@@ -52951,7 +52723,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.452338321066441</v>
+        <v>1.464773030428005</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.123594660808411</v>
@@ -53040,7 +52812,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.46759340739226</v>
+        <v>1.479733096129185</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.125865413029178</v>
@@ -53129,7 +52901,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.459371381575973</v>
+        <v>1.468694120457206</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.114881691037918</v>
@@ -53218,7 +52990,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.468734991469371</v>
+        <v>1.473312685064983</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.129367198462773</v>
@@ -53307,7 +53079,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.51222343920069</v>
+        <v>1.508241666397366</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.076690308798303</v>
@@ -53396,7 +53168,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.519094499302293</v>
+        <v>1.519471710166667</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.13564823542711</v>
@@ -53485,7 +53257,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.512520766267186</v>
+        <v>1.514604538030843</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.096938933667258</v>
@@ -53574,7 +53346,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.512241337024894</v>
+        <v>1.512487738550056</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.122536417677442</v>
@@ -53663,7 +53435,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.507906512487595</v>
+        <v>1.509638114824007</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.070547877770624</v>
@@ -53752,7 +53524,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.524692900738323</v>
+        <v>1.524366181525413</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.113513391071433</v>
@@ -53841,7 +53613,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.52931768833617</v>
+        <v>1.530792322713777</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.107134624027797</v>
@@ -53930,7 +53702,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.562609977061214</v>
+        <v>1.563594981295386</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.13766813914107</v>
@@ -54019,7 +53791,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.610083689983795</v>
+        <v>1.609456784687945</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.835005336949204</v>
